--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284431.2977245312</v>
+        <v>276199.8312808621</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9098025.630029121</v>
+        <v>8280889.158445773</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11706134.17950863</v>
+        <v>11766883.62028378</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6751533.952616812</v>
+        <v>6761253.585064841</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>61.12539172422207</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -803,7 +803,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>61.12539172422213</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
+        <v>16.59484244216934</v>
+      </c>
+      <c r="U4" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="U4" t="n">
-        <v>177.183706143509</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,68 +895,68 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T5" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C5" t="n">
+      <c r="V5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D5" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="E5" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>46.39658611529718</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>55.68892299579506</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>87.08968159456712</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>65.15807835678824</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,73 +1135,73 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>202.5496269016835</v>
       </c>
-      <c r="F8" t="n">
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="G8" t="n">
+      <c r="Y8" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="H8" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1274,13 +1274,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>99.22035718661247</v>
       </c>
       <c r="X9" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>48.92535853381431</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>19.19368839729513</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>292.4123274227759</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>292.4123274227759</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>292.4123274227759</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>257.5567779939809</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.17735938446027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>113.7865689905592</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>118.5388453083828</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>84.32029961295801</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>37.86294566882083</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.9414346223241</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>30.06694394418347</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.03420019768146</v>
+        <v>3.280455960253065</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>292.412327422776</v>
+        <v>38.91233199648151</v>
       </c>
       <c r="D14" t="n">
-        <v>292.412327422776</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>257.556777993981</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="G14" t="n">
-        <v>292.412327422776</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,25 +1688,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>53.31416027710759</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>118.5388453083828</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>37.86294566882081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>96.99514151114545</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -1751,10 +1751,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3029221927327</v>
+        <v>14.36554779710507</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S16" t="n">
-        <v>152.7991513854606</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>375.3198664502669</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>71.86082298537976</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>408.4323500200001</v>
@@ -1864,7 +1864,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I17" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I18" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882108</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.786554340598486</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S18" t="n">
         <v>127.6305556124798</v>
@@ -2016,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3029221927327</v>
+        <v>65.58274624196429</v>
       </c>
       <c r="H19" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>147.3795749238901</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>239.4216398875982</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>114.1033586264837</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -2146,10 +2146,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I21" t="n">
-        <v>37.86294566882108</v>
+        <v>37.86294566882081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>85.99499278044811</v>
+        <v>199.3082754554674</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>370.9363261271059</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>252.0676004408709</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>86.54348839599123</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>76.19311257242947</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>232.2142445012334</v>
@@ -2535,10 +2535,10 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>353.4469940643355</v>
+        <v>353.5633845341959</v>
       </c>
       <c r="H26" t="n">
         <v>314.7099853831353</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>46.2864673814962</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>57.16765187647443</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>210.2208863147104</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>343.7689110580573</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>59.98038817330887</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>76.19311257242947</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.3935666794007</v>
+        <v>273.8169101668879</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>111.5032594027799</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -3204,10 +3204,10 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H34" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>78.87783681806312</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>248.1036041751927</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>30.57627969198245</v>
       </c>
       <c r="G35" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.34887801185646</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>163.1304800637655</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>278.9132329653717</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>146.4656687874701</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>138.3566509204213</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.2097421070808</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>270.3809603917458</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>142.5673347761925</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H42" t="n">
-        <v>39.32302700187267</v>
+        <v>84.320299612958</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>37.86294566882081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>3.786554340597835</v>
       </c>
       <c r="S42" t="n">
-        <v>127.6305556124798</v>
+        <v>127.6305556124803</v>
       </c>
       <c r="T42" t="n">
         <v>173.9226398638123</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2142445012334</v>
+        <v>87.52641650213991</v>
       </c>
       <c r="U43" t="n">
         <v>282.5697534131281</v>
@@ -3960,10 +3960,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>135.8092700490406</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -3991,7 +3991,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1499339266817</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.0676004408709</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>117.302361064973</v>
+        <v>118.5388453083828</v>
       </c>
       <c r="H45" t="n">
-        <v>72.37846494634218</v>
+        <v>84.320299612958</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>37.86294566882081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S45" t="n">
-        <v>104.6634031087932</v>
+        <v>127.6305556124798</v>
       </c>
       <c r="T45" t="n">
-        <v>168.9387406546298</v>
+        <v>173.9226398638123</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8600869747314</v>
+        <v>207.9414346223241</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>43.29259527588789</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>76.19311257242947</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.97463094409066</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>178.0415325362202</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>227.7850206727407</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5132101302112</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4200,10 +4200,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>250.6806912819119</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="C2" t="n">
-        <v>250.6806912819119</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D2" t="n">
         <v>250.6806912819119</v>
       </c>
       <c r="E2" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F2" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G2" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H2" t="n">
         <v>18.39687801105209</v>
@@ -4330,25 +4330,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K2" t="n">
-        <v>279.6756096381168</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L2" t="n">
-        <v>507.3369750248864</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M2" t="n">
-        <v>734.998340411656</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N2" t="n">
-        <v>734.998340411656</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O2" t="n">
-        <v>734.998340411656</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P2" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
@@ -4363,19 +4363,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U2" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V2" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="W2" t="n">
-        <v>687.5600872817448</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X2" t="n">
-        <v>687.5600872817448</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.9645045527716</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="3">
@@ -4412,10 +4412,10 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L3" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M3" t="n">
         <v>359.1732256175491</v>
@@ -4436,19 +4436,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S3" t="n">
-        <v>858.101080629148</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T3" t="n">
-        <v>681.1172688280565</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U3" t="n">
-        <v>471.0541255066982</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="V3" t="n">
-        <v>248.5141238777652</v>
+        <v>310.256943801222</v>
       </c>
       <c r="W3" t="n">
-        <v>18.39687801105209</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="X3" t="n">
         <v>18.39687801105209</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.8695735478722</v>
+        <v>344.0805469835689</v>
       </c>
       <c r="C4" t="n">
-        <v>181.8695735478722</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="D4" t="n">
-        <v>181.8695735478722</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="E4" t="n">
-        <v>181.8695735478722</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="F4" t="n">
-        <v>181.8695735478722</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="G4" t="n">
-        <v>181.8695735478722</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="H4" t="n">
-        <v>181.8695735478722</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J4" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K4" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M4" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N4" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O4" t="n">
         <v>796.5455384059751</v>
@@ -4518,22 +4518,22 @@
         <v>593.126827367731</v>
       </c>
       <c r="T4" t="n">
-        <v>360.8430140968712</v>
+        <v>576.3643602544287</v>
       </c>
       <c r="U4" t="n">
-        <v>181.8695735478722</v>
+        <v>344.0805469835689</v>
       </c>
       <c r="V4" t="n">
-        <v>181.8695735478722</v>
+        <v>344.0805469835689</v>
       </c>
       <c r="W4" t="n">
-        <v>181.8695735478722</v>
+        <v>344.0805469835689</v>
       </c>
       <c r="X4" t="n">
-        <v>181.8695735478722</v>
+        <v>344.0805469835689</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.8695735478722</v>
+        <v>344.0805469835689</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C5" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D5" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E5" t="n">
         <v>18.39687801105209</v>
@@ -4576,16 +4576,16 @@
         <v>618.3693816934194</v>
       </c>
       <c r="M5" t="n">
-        <v>618.3693816934194</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N5" t="n">
-        <v>618.3693816934194</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O5" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P5" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q5" t="n">
         <v>919.8439005526046</v>
@@ -4594,25 +4594,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S5" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T5" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U5" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V5" t="n">
-        <v>919.8439005526046</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="W5" t="n">
-        <v>919.8439005526046</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="X5" t="n">
-        <v>919.8439005526046</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="Y5" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>680.0781907635957</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C6" t="n">
-        <v>529.4239603236879</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D6" t="n">
-        <v>399.3349929451682</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E6" t="n">
-        <v>262.8885020560559</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F6" t="n">
-        <v>138.4566959391877</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G6" t="n">
         <v>18.39687801105209</v>
@@ -4646,52 +4646,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L6" t="n">
-        <v>18.39687801105209</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M6" t="n">
-        <v>18.39687801105209</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N6" t="n">
-        <v>246.0582433978217</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O6" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P6" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S6" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T6" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U6" t="n">
-        <v>919.8439005526046</v>
+        <v>839.6754200811793</v>
       </c>
       <c r="V6" t="n">
-        <v>919.8439005526046</v>
+        <v>617.1354184522463</v>
       </c>
       <c r="W6" t="n">
-        <v>919.8439005526046</v>
+        <v>387.0181725855332</v>
       </c>
       <c r="X6" t="n">
-        <v>919.8439005526046</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.874525204557</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>919.8439005526046</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="C7" t="n">
-        <v>919.8439005526046</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="D7" t="n">
-        <v>818.4869254147573</v>
+        <v>342.2097440524041</v>
       </c>
       <c r="E7" t="n">
-        <v>662.9281132739598</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="F7" t="n">
-        <v>505.6021784869328</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G7" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H7" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I7" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J7" t="n">
         <v>18.39687801105209</v>
@@ -4749,28 +4749,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S7" t="n">
-        <v>919.8439005526046</v>
+        <v>730.1266704207491</v>
       </c>
       <c r="T7" t="n">
-        <v>919.8439005526046</v>
+        <v>730.1266704207491</v>
       </c>
       <c r="U7" t="n">
-        <v>919.8439005526046</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="V7" t="n">
-        <v>919.8439005526046</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="W7" t="n">
-        <v>919.8439005526046</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="X7" t="n">
-        <v>919.8439005526046</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="Y7" t="n">
-        <v>919.8439005526046</v>
+        <v>497.8428571498893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C8" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D8" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E8" t="n">
-        <v>715.2483178236314</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F8" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G8" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H8" t="n">
         <v>18.39687801105209</v>
@@ -4804,25 +4804,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J8" t="n">
-        <v>52.01424425134721</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K8" t="n">
-        <v>279.6756096381168</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L8" t="n">
-        <v>279.6756096381168</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M8" t="n">
-        <v>507.3369750248864</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N8" t="n">
-        <v>734.998340411656</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O8" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P8" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q8" t="n">
         <v>919.8439005526046</v>
@@ -4834,22 +4834,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="W8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J9" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K9" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L9" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M9" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N9" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O9" t="n">
-        <v>586.8345910043187</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P9" t="n">
         <v>692.182535165835</v>
@@ -4922,10 +4922,10 @@
         <v>487.2407556023135</v>
       </c>
       <c r="W9" t="n">
-        <v>257.1235097356004</v>
+        <v>387.0181725855332</v>
       </c>
       <c r="X9" t="n">
-        <v>67.81643208561201</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="Y9" t="n">
         <v>18.39687801105209</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>919.8439005526046</v>
+        <v>37.78444204872395</v>
       </c>
       <c r="C10" t="n">
-        <v>919.8439005526046</v>
+        <v>37.78444204872395</v>
       </c>
       <c r="D10" t="n">
-        <v>818.4869254147573</v>
+        <v>37.78444204872395</v>
       </c>
       <c r="E10" t="n">
-        <v>662.9281132739598</v>
+        <v>37.78444204872395</v>
       </c>
       <c r="F10" t="n">
-        <v>505.6021784869328</v>
+        <v>37.78444204872395</v>
       </c>
       <c r="G10" t="n">
-        <v>337.3481245863783</v>
+        <v>37.78444204872395</v>
       </c>
       <c r="H10" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I10" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J10" t="n">
         <v>18.39687801105209</v>
@@ -4992,22 +4992,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T10" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U10" t="n">
-        <v>919.8439005526046</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V10" t="n">
-        <v>919.8439005526046</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W10" t="n">
-        <v>919.8439005526046</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="X10" t="n">
-        <v>919.8439005526046</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y10" t="n">
-        <v>919.8439005526046</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1169.649309691104</v>
+        <v>397.7260031708285</v>
       </c>
       <c r="C11" t="n">
-        <v>1169.649309691104</v>
+        <v>397.7260031708285</v>
       </c>
       <c r="D11" t="n">
-        <v>874.2833223953703</v>
+        <v>397.7260031708285</v>
       </c>
       <c r="E11" t="n">
-        <v>578.9173350996371</v>
+        <v>397.7260031708285</v>
       </c>
       <c r="F11" t="n">
-        <v>283.5513478039038</v>
+        <v>397.7260031708285</v>
       </c>
       <c r="G11" t="n">
-        <v>23.39298619382207</v>
+        <v>397.7260031708285</v>
       </c>
       <c r="H11" t="n">
-        <v>23.39298619382207</v>
+        <v>102.3600158750951</v>
       </c>
       <c r="I11" t="n">
-        <v>23.39298619382207</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="J11" t="n">
-        <v>23.39298619382207</v>
+        <v>218.3550827334421</v>
       </c>
       <c r="K11" t="n">
-        <v>312.8811903423702</v>
+        <v>507.8432868819904</v>
       </c>
       <c r="L11" t="n">
-        <v>602.3693944909182</v>
+        <v>507.8432868819904</v>
       </c>
       <c r="M11" t="n">
-        <v>880.1611055425554</v>
+        <v>507.8432868819904</v>
       </c>
       <c r="N11" t="n">
-        <v>880.1611055425554</v>
+        <v>797.3314910305387</v>
       </c>
       <c r="O11" t="n">
-        <v>880.1611055425554</v>
+        <v>797.3314910305387</v>
       </c>
       <c r="P11" t="n">
-        <v>1169.649309691104</v>
+        <v>920.789081428567</v>
       </c>
       <c r="Q11" t="n">
         <v>1169.649309691104</v>
@@ -5071,22 +5071,22 @@
         <v>1169.649309691104</v>
       </c>
       <c r="T11" t="n">
-        <v>1169.649309691104</v>
+        <v>948.7963339360541</v>
       </c>
       <c r="U11" t="n">
-        <v>1169.649309691104</v>
+        <v>693.0919904665619</v>
       </c>
       <c r="V11" t="n">
-        <v>1169.649309691104</v>
+        <v>397.7260031708285</v>
       </c>
       <c r="W11" t="n">
-        <v>1169.649309691104</v>
+        <v>397.7260031708285</v>
       </c>
       <c r="X11" t="n">
-        <v>1169.649309691104</v>
+        <v>397.7260031708285</v>
       </c>
       <c r="Y11" t="n">
-        <v>1169.649309691104</v>
+        <v>397.7260031708285</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>808.1681078769792</v>
+        <v>138.3289144671143</v>
       </c>
       <c r="C12" t="n">
-        <v>657.5138774370714</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="D12" t="n">
-        <v>527.4249100585517</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="E12" t="n">
-        <v>390.9784191694395</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="F12" t="n">
-        <v>266.5466130525713</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="G12" t="n">
-        <v>146.8104056703664</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="H12" t="n">
-        <v>61.63838585929766</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="I12" t="n">
-        <v>23.39298619382207</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="J12" t="n">
         <v>166.4736436941267</v>
       </c>
       <c r="K12" t="n">
-        <v>166.4736436941267</v>
+        <v>455.961847842675</v>
       </c>
       <c r="L12" t="n">
-        <v>455.9618478426747</v>
+        <v>745.4500519912233</v>
       </c>
       <c r="M12" t="n">
-        <v>745.4500519912228</v>
+        <v>1034.938256139772</v>
       </c>
       <c r="N12" t="n">
-        <v>880.1611055425554</v>
+        <v>1169.649309691104</v>
       </c>
       <c r="O12" t="n">
-        <v>880.1611055425554</v>
+        <v>1169.649309691104</v>
       </c>
       <c r="P12" t="n">
         <v>1169.649309691104</v>
@@ -5153,19 +5153,19 @@
         <v>1169.649309691104</v>
       </c>
       <c r="U12" t="n">
-        <v>1169.649309691104</v>
+        <v>959.6074565372414</v>
       </c>
       <c r="V12" t="n">
-        <v>1169.649309691104</v>
+        <v>737.0674549083085</v>
       </c>
       <c r="W12" t="n">
-        <v>1169.649309691104</v>
+        <v>506.9502090415954</v>
       </c>
       <c r="X12" t="n">
-        <v>1139.278659242433</v>
+        <v>317.643131391607</v>
       </c>
       <c r="Y12" t="n">
-        <v>959.9644423179406</v>
+        <v>138.3289144671143</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.1651238059585</v>
+        <v>34.59004865528875</v>
       </c>
       <c r="C13" t="n">
-        <v>812.9600058719477</v>
+        <v>34.59004865528875</v>
       </c>
       <c r="D13" t="n">
-        <v>657.3268927744624</v>
+        <v>34.59004865528875</v>
       </c>
       <c r="E13" t="n">
-        <v>501.7680806336649</v>
+        <v>34.59004865528875</v>
       </c>
       <c r="F13" t="n">
-        <v>344.4421458466379</v>
+        <v>34.59004865528875</v>
       </c>
       <c r="G13" t="n">
-        <v>176.4593961570089</v>
+        <v>34.59004865528875</v>
       </c>
       <c r="H13" t="n">
-        <v>23.39298619382207</v>
+        <v>34.59004865528875</v>
       </c>
       <c r="I13" t="n">
-        <v>23.39298619382207</v>
+        <v>34.59004865528875</v>
       </c>
       <c r="J13" t="n">
-        <v>23.39298619382207</v>
+        <v>23.39298619382208</v>
       </c>
       <c r="K13" t="n">
-        <v>136.121383541006</v>
+        <v>136.1213835410061</v>
       </c>
       <c r="L13" t="n">
-        <v>339.7818831881905</v>
+        <v>339.7818831881907</v>
       </c>
       <c r="M13" t="n">
-        <v>567.7553192415379</v>
+        <v>567.7553192415381</v>
       </c>
       <c r="N13" t="n">
-        <v>791.6357095748986</v>
+        <v>791.6357095748989</v>
       </c>
       <c r="O13" t="n">
-        <v>991.9249760513986</v>
+        <v>991.924976051399</v>
       </c>
       <c r="P13" t="n">
         <v>1143.961174017357</v>
@@ -5223,28 +5223,28 @@
         <v>1169.649309691104</v>
       </c>
       <c r="R13" t="n">
-        <v>1057.947144207657</v>
+        <v>1057.947144207658</v>
       </c>
       <c r="S13" t="n">
-        <v>1057.947144207657</v>
+        <v>1057.947144207658</v>
       </c>
       <c r="T13" t="n">
-        <v>1057.947144207657</v>
+        <v>823.387301277119</v>
       </c>
       <c r="U13" t="n">
-        <v>1057.947144207657</v>
+        <v>537.9633079305249</v>
       </c>
       <c r="V13" t="n">
-        <v>1057.947144207657</v>
+        <v>271.9839627513492</v>
       </c>
       <c r="W13" t="n">
-        <v>1057.947144207657</v>
+        <v>271.9839627513492</v>
       </c>
       <c r="X13" t="n">
-        <v>1057.947144207657</v>
+        <v>37.90364053433225</v>
       </c>
       <c r="Y13" t="n">
-        <v>1057.947144207657</v>
+        <v>37.90364053433225</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1169.649309691104</v>
+        <v>358.0643593445873</v>
       </c>
       <c r="C14" t="n">
-        <v>874.2833223953706</v>
+        <v>318.7589734895555</v>
       </c>
       <c r="D14" t="n">
-        <v>578.9173350996373</v>
+        <v>318.7589734895555</v>
       </c>
       <c r="E14" t="n">
-        <v>578.9173350996373</v>
+        <v>318.7589734895555</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7589734895554</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="G14" t="n">
-        <v>23.39298619382208</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="H14" t="n">
-        <v>23.39298619382208</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="I14" t="n">
-        <v>23.39298619382208</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="J14" t="n">
-        <v>23.39298619382208</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="K14" t="n">
-        <v>312.8811903423703</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="L14" t="n">
-        <v>312.8811903423703</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="M14" t="n">
-        <v>602.3693944909185</v>
+        <v>312.8811903423704</v>
       </c>
       <c r="N14" t="n">
-        <v>602.3693944909185</v>
+        <v>341.8126731314705</v>
       </c>
       <c r="O14" t="n">
-        <v>880.1611055425558</v>
+        <v>631.3008772800188</v>
       </c>
       <c r="P14" t="n">
-        <v>1169.649309691104</v>
+        <v>920.789081428567</v>
       </c>
       <c r="Q14" t="n">
         <v>1169.649309691104</v>
@@ -5308,22 +5308,22 @@
         <v>1169.649309691104</v>
       </c>
       <c r="T14" t="n">
-        <v>1169.649309691104</v>
+        <v>948.7963339360541</v>
       </c>
       <c r="U14" t="n">
-        <v>1169.649309691104</v>
+        <v>948.7963339360541</v>
       </c>
       <c r="V14" t="n">
-        <v>1169.649309691104</v>
+        <v>653.4303466403207</v>
       </c>
       <c r="W14" t="n">
-        <v>1169.649309691104</v>
+        <v>653.4303466403207</v>
       </c>
       <c r="X14" t="n">
-        <v>1169.649309691104</v>
+        <v>358.0643593445873</v>
       </c>
       <c r="Y14" t="n">
-        <v>1169.649309691104</v>
+        <v>358.0643593445873</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>385.8815108300039</v>
+        <v>277.91375968921</v>
       </c>
       <c r="C15" t="n">
-        <v>235.2272803900961</v>
+        <v>277.91375968921</v>
       </c>
       <c r="D15" t="n">
-        <v>235.2272803900961</v>
+        <v>147.8247923106903</v>
       </c>
       <c r="E15" t="n">
-        <v>235.2272803900961</v>
+        <v>147.8247923106903</v>
       </c>
       <c r="F15" t="n">
-        <v>181.3745932415026</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="G15" t="n">
-        <v>61.63838585929764</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="H15" t="n">
-        <v>61.63838585929764</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="I15" t="n">
-        <v>23.39298619382208</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="J15" t="n">
-        <v>23.39298619382208</v>
+        <v>166.4736436941267</v>
       </c>
       <c r="K15" t="n">
-        <v>312.8811903423703</v>
+        <v>455.961847842675</v>
       </c>
       <c r="L15" t="n">
-        <v>312.8811903423703</v>
+        <v>745.4500519912233</v>
       </c>
       <c r="M15" t="n">
-        <v>590.6729013940076</v>
+        <v>1034.938256139772</v>
       </c>
       <c r="N15" t="n">
-        <v>590.6729013940076</v>
+        <v>1169.649309691104</v>
       </c>
       <c r="O15" t="n">
-        <v>880.1611055425558</v>
+        <v>1169.649309691104</v>
       </c>
       <c r="P15" t="n">
         <v>1169.649309691104</v>
@@ -5390,19 +5390,19 @@
         <v>1169.649309691104</v>
       </c>
       <c r="U15" t="n">
-        <v>1169.649309691104</v>
+        <v>1071.674419275806</v>
       </c>
       <c r="V15" t="n">
-        <v>947.1093080621711</v>
+        <v>849.1344176468729</v>
       </c>
       <c r="W15" t="n">
-        <v>716.9920621954579</v>
+        <v>619.0171717801597</v>
       </c>
       <c r="X15" t="n">
-        <v>716.9920621954579</v>
+        <v>429.7100941301713</v>
       </c>
       <c r="Y15" t="n">
-        <v>537.6778452709652</v>
+        <v>429.7100941301713</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>830.0987138427718</v>
+        <v>37.90364053433225</v>
       </c>
       <c r="C16" t="n">
-        <v>659.893595908761</v>
+        <v>37.90364053433225</v>
       </c>
       <c r="D16" t="n">
-        <v>504.2604828112757</v>
+        <v>37.90364053433225</v>
       </c>
       <c r="E16" t="n">
-        <v>348.7016706704782</v>
+        <v>37.90364053433225</v>
       </c>
       <c r="F16" t="n">
-        <v>191.3757358834511</v>
+        <v>37.90364053433225</v>
       </c>
       <c r="G16" t="n">
-        <v>23.39298619382208</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="H16" t="n">
-        <v>23.39298619382208</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="I16" t="n">
-        <v>23.39298619382208</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="J16" t="n">
-        <v>23.39298619382208</v>
+        <v>23.39298619382209</v>
       </c>
       <c r="K16" t="n">
-        <v>136.121383541006</v>
+        <v>136.1213835410061</v>
       </c>
       <c r="L16" t="n">
-        <v>339.7818831881906</v>
+        <v>339.7818831881907</v>
       </c>
       <c r="M16" t="n">
-        <v>567.755319241538</v>
+        <v>567.7553192415381</v>
       </c>
       <c r="N16" t="n">
-        <v>791.6357095748988</v>
+        <v>791.6357095748989</v>
       </c>
       <c r="O16" t="n">
-        <v>991.9249760513989</v>
+        <v>991.924976051399</v>
       </c>
       <c r="P16" t="n">
         <v>1143.961174017357</v>
@@ -5460,28 +5460,28 @@
         <v>1169.649309691104</v>
       </c>
       <c r="R16" t="n">
-        <v>1169.649309691104</v>
+        <v>1057.947144207658</v>
       </c>
       <c r="S16" t="n">
-        <v>1015.306732534073</v>
+        <v>1057.947144207658</v>
       </c>
       <c r="T16" t="n">
-        <v>1015.306732534073</v>
+        <v>823.387301277119</v>
       </c>
       <c r="U16" t="n">
-        <v>1015.306732534073</v>
+        <v>537.9633079305249</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.306732534073</v>
+        <v>271.9839627513492</v>
       </c>
       <c r="W16" t="n">
-        <v>1015.306732534073</v>
+        <v>271.9839627513492</v>
       </c>
       <c r="X16" t="n">
-        <v>1015.306732534073</v>
+        <v>37.90364053433225</v>
       </c>
       <c r="Y16" t="n">
-        <v>1015.306732534073</v>
+        <v>37.90364053433225</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.5084735253087</v>
+        <v>1572.661255145835</v>
       </c>
       <c r="C17" t="n">
-        <v>964.5084735253087</v>
+        <v>1179.485753648765</v>
       </c>
       <c r="D17" t="n">
-        <v>964.5084735253087</v>
+        <v>1179.485753648765</v>
       </c>
       <c r="E17" t="n">
-        <v>964.5084735253087</v>
+        <v>776.9022287653095</v>
       </c>
       <c r="F17" t="n">
-        <v>891.9217836410867</v>
+        <v>776.9022287653095</v>
       </c>
       <c r="G17" t="n">
-        <v>479.3638543279552</v>
+        <v>364.3442994521779</v>
       </c>
       <c r="H17" t="n">
-        <v>161.474980203576</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I17" t="n">
         <v>46.45542532779876</v>
@@ -5521,19 +5521,19 @@
         <v>46.45542532779876</v>
       </c>
       <c r="L17" t="n">
-        <v>621.3413137593084</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="M17" t="n">
-        <v>1196.227202190818</v>
+        <v>525.6756183838773</v>
       </c>
       <c r="N17" t="n">
-        <v>1771.113090622327</v>
+        <v>1100.561506815387</v>
       </c>
       <c r="O17" t="n">
-        <v>2311.031164165477</v>
+        <v>1640.479580358536</v>
       </c>
       <c r="P17" t="n">
-        <v>2311.031164165477</v>
+        <v>2073.911038127401</v>
       </c>
       <c r="Q17" t="n">
         <v>2322.771266389938</v>
@@ -5548,19 +5548,19 @@
         <v>2322.771266389938</v>
       </c>
       <c r="U17" t="n">
-        <v>2067.066922920446</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="V17" t="n">
-        <v>1724.960113623964</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="W17" t="n">
-        <v>1353.961078592252</v>
+        <v>1951.772231358225</v>
       </c>
       <c r="X17" t="n">
-        <v>964.5084735253087</v>
+        <v>1951.772231358225</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.5084735253087</v>
+        <v>1951.772231358225</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>831.2305470109559</v>
+        <v>831.2305470109561</v>
       </c>
       <c r="C18" t="n">
-        <v>680.5763165710481</v>
+        <v>680.5763165710483</v>
       </c>
       <c r="D18" t="n">
-        <v>550.4873491925284</v>
+        <v>550.4873491925287</v>
       </c>
       <c r="E18" t="n">
-        <v>414.0408583034161</v>
+        <v>414.0408583034164</v>
       </c>
       <c r="F18" t="n">
-        <v>289.6090521865479</v>
+        <v>289.6090521865482</v>
       </c>
       <c r="G18" t="n">
-        <v>169.872844804343</v>
+        <v>169.8728448043433</v>
       </c>
       <c r="H18" t="n">
-        <v>84.70082499327432</v>
+        <v>84.70082499327459</v>
       </c>
       <c r="I18" t="n">
         <v>46.45542532779876</v>
       </c>
       <c r="J18" t="n">
-        <v>46.45542532779876</v>
+        <v>189.5360828281034</v>
       </c>
       <c r="K18" t="n">
-        <v>417.4106833070677</v>
+        <v>560.4913408073724</v>
       </c>
       <c r="L18" t="n">
-        <v>969.8431521386235</v>
+        <v>598.1136010954091</v>
       </c>
       <c r="M18" t="n">
-        <v>1281.698317288743</v>
+        <v>1172.999489526919</v>
       </c>
       <c r="N18" t="n">
-        <v>1856.584205720253</v>
+        <v>1747.885377958428</v>
       </c>
       <c r="O18" t="n">
-        <v>1856.584205720253</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="P18" t="n">
         <v>2322.771266389938</v>
@@ -5627,10 +5627,10 @@
         <v>2014.347276675907</v>
       </c>
       <c r="U18" t="n">
-        <v>1804.305423522044</v>
+        <v>1804.305423522045</v>
       </c>
       <c r="V18" t="n">
-        <v>1581.765421893111</v>
+        <v>1581.765421893112</v>
       </c>
       <c r="W18" t="n">
         <v>1351.648176026398</v>
@@ -5639,7 +5639,7 @@
         <v>1162.34109837641</v>
       </c>
       <c r="Y18" t="n">
-        <v>983.0268814519172</v>
+        <v>983.0268814519175</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>492.4401528004322</v>
+        <v>123.8976860134718</v>
       </c>
       <c r="C19" t="n">
-        <v>492.4401528004322</v>
+        <v>123.8976860134718</v>
       </c>
       <c r="D19" t="n">
-        <v>492.4401528004322</v>
+        <v>123.8976860134718</v>
       </c>
       <c r="E19" t="n">
-        <v>492.4401528004322</v>
+        <v>123.8976860134718</v>
       </c>
       <c r="F19" t="n">
-        <v>492.4401528004322</v>
+        <v>123.8976860134718</v>
       </c>
       <c r="G19" t="n">
-        <v>324.4574031108032</v>
+        <v>57.65248778926543</v>
       </c>
       <c r="H19" t="n">
-        <v>171.3909931476165</v>
+        <v>57.65248778926543</v>
       </c>
       <c r="I19" t="n">
-        <v>46.45542532779876</v>
+        <v>57.65248778926543</v>
       </c>
       <c r="J19" t="n">
         <v>46.45542532779876</v>
@@ -5712,13 +5712,13 @@
         <v>641.308410299311</v>
       </c>
       <c r="W19" t="n">
-        <v>492.4401528004322</v>
+        <v>357.9780082304887</v>
       </c>
       <c r="X19" t="n">
-        <v>492.4401528004322</v>
+        <v>123.8976860134718</v>
       </c>
       <c r="Y19" t="n">
-        <v>492.4401528004322</v>
+        <v>123.8976860134718</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>842.2144517083236</v>
+        <v>999.3598412397506</v>
       </c>
       <c r="C20" t="n">
-        <v>449.0389502112542</v>
+        <v>606.1843397426812</v>
       </c>
       <c r="D20" t="n">
-        <v>449.0389502112542</v>
+        <v>606.1843397426812</v>
       </c>
       <c r="E20" t="n">
-        <v>46.45542532779876</v>
+        <v>606.1843397426812</v>
       </c>
       <c r="F20" t="n">
-        <v>46.45542532779876</v>
+        <v>606.1843397426812</v>
       </c>
       <c r="G20" t="n">
-        <v>46.45542532779876</v>
+        <v>364.3442994521779</v>
       </c>
       <c r="H20" t="n">
         <v>46.45542532779876</v>
@@ -5752,22 +5752,22 @@
         <v>46.45542532779876</v>
       </c>
       <c r="J20" t="n">
-        <v>241.4175218674188</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="K20" t="n">
-        <v>675.8050088929849</v>
+        <v>480.8429123533649</v>
       </c>
       <c r="L20" t="n">
-        <v>1250.690897324494</v>
+        <v>480.8429123533649</v>
       </c>
       <c r="M20" t="n">
-        <v>1250.690897324494</v>
+        <v>774.5358466464144</v>
       </c>
       <c r="N20" t="n">
-        <v>1782.853192846789</v>
+        <v>1349.421735077924</v>
       </c>
       <c r="O20" t="n">
-        <v>2322.771266389938</v>
+        <v>1889.339808621073</v>
       </c>
       <c r="P20" t="n">
         <v>2322.771266389938</v>
@@ -5782,22 +5782,22 @@
         <v>2322.771266389938</v>
       </c>
       <c r="T20" t="n">
-        <v>2207.515348585409</v>
+        <v>2101.918290634888</v>
       </c>
       <c r="U20" t="n">
-        <v>1951.811005115916</v>
+        <v>2101.918290634888</v>
       </c>
       <c r="V20" t="n">
-        <v>1609.704195819435</v>
+        <v>1759.811481338406</v>
       </c>
       <c r="W20" t="n">
-        <v>1238.705160787722</v>
+        <v>1388.812446306694</v>
       </c>
       <c r="X20" t="n">
-        <v>1238.705160787722</v>
+        <v>999.3598412397506</v>
       </c>
       <c r="Y20" t="n">
-        <v>842.2144517083236</v>
+        <v>999.3598412397506</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>831.2305470109561</v>
+        <v>831.2305470109559</v>
       </c>
       <c r="C21" t="n">
-        <v>680.5763165710483</v>
+        <v>680.576316571048</v>
       </c>
       <c r="D21" t="n">
-        <v>550.4873491925287</v>
+        <v>550.4873491925284</v>
       </c>
       <c r="E21" t="n">
-        <v>414.0408583034164</v>
+        <v>414.0408583034161</v>
       </c>
       <c r="F21" t="n">
-        <v>289.6090521865482</v>
+        <v>289.6090521865478</v>
       </c>
       <c r="G21" t="n">
-        <v>169.8728448043433</v>
+        <v>169.872844804343</v>
       </c>
       <c r="H21" t="n">
-        <v>84.70082499327459</v>
+        <v>84.70082499327431</v>
       </c>
       <c r="I21" t="n">
         <v>46.45542532779876</v>
       </c>
       <c r="J21" t="n">
-        <v>189.5360828281034</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="K21" t="n">
-        <v>189.5360828281034</v>
+        <v>417.4106833070677</v>
       </c>
       <c r="L21" t="n">
-        <v>741.9685516596592</v>
+        <v>969.8431521386235</v>
       </c>
       <c r="M21" t="n">
-        <v>1281.698317288743</v>
+        <v>969.8431521386235</v>
       </c>
       <c r="N21" t="n">
-        <v>1856.584205720253</v>
+        <v>1006.846664600854</v>
       </c>
       <c r="O21" t="n">
-        <v>1856.584205720253</v>
+        <v>1581.732553032364</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.771266389938</v>
+        <v>2047.919613702049</v>
       </c>
       <c r="Q21" t="n">
         <v>2322.771266389938</v>
@@ -5876,7 +5876,7 @@
         <v>1162.34109837641</v>
       </c>
       <c r="Y21" t="n">
-        <v>983.0268814519175</v>
+        <v>983.0268814519172</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697.5280398792631</v>
+        <v>527.3229219452523</v>
       </c>
       <c r="C22" t="n">
         <v>527.3229219452523</v>
@@ -5937,25 +5937,25 @@
         <v>1192.711748825081</v>
       </c>
       <c r="S22" t="n">
-        <v>1192.711748825081</v>
+        <v>994.6237574834861</v>
       </c>
       <c r="T22" t="n">
-        <v>1192.711748825081</v>
+        <v>994.6237574834861</v>
       </c>
       <c r="U22" t="n">
-        <v>1192.711748825081</v>
+        <v>994.6237574834861</v>
       </c>
       <c r="V22" t="n">
-        <v>1192.711748825081</v>
+        <v>728.6444123043103</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.711748825081</v>
+        <v>728.6444123043103</v>
       </c>
       <c r="X22" t="n">
-        <v>1105.848119753921</v>
+        <v>527.3229219452523</v>
       </c>
       <c r="Y22" t="n">
-        <v>882.7360585705644</v>
+        <v>527.3229219452523</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>449.0389502112542</v>
+        <v>1671.666819491478</v>
       </c>
       <c r="C23" t="n">
-        <v>449.0389502112542</v>
+        <v>1278.491317994408</v>
       </c>
       <c r="D23" t="n">
-        <v>449.0389502112542</v>
+        <v>1278.491317994408</v>
       </c>
       <c r="E23" t="n">
-        <v>46.45542532779876</v>
+        <v>875.9077931109525</v>
       </c>
       <c r="F23" t="n">
-        <v>46.45542532779876</v>
+        <v>459.0133546409302</v>
       </c>
       <c r="G23" t="n">
         <v>46.45542532779876</v>
@@ -5989,25 +5989,25 @@
         <v>46.45542532779876</v>
       </c>
       <c r="J23" t="n">
-        <v>46.45542532779876</v>
+        <v>91.28813135831126</v>
       </c>
       <c r="K23" t="n">
-        <v>480.8429123533649</v>
+        <v>525.6756183838773</v>
       </c>
       <c r="L23" t="n">
-        <v>1055.728800784874</v>
+        <v>525.6756183838773</v>
       </c>
       <c r="M23" t="n">
-        <v>1630.614689216384</v>
+        <v>525.6756183838773</v>
       </c>
       <c r="N23" t="n">
-        <v>2205.500577647894</v>
+        <v>1100.561506815387</v>
       </c>
       <c r="O23" t="n">
-        <v>2205.500577647894</v>
+        <v>1640.479580358536</v>
       </c>
       <c r="P23" t="n">
-        <v>2322.771266389938</v>
+        <v>2073.911038127401</v>
       </c>
       <c r="Q23" t="n">
         <v>2322.771266389938</v>
@@ -6025,16 +6025,16 @@
         <v>2322.771266389938</v>
       </c>
       <c r="V23" t="n">
-        <v>1980.664457093456</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="W23" t="n">
-        <v>1609.665422061744</v>
+        <v>2068.157528570876</v>
       </c>
       <c r="X23" t="n">
-        <v>1220.212816994801</v>
+        <v>2068.157528570876</v>
       </c>
       <c r="Y23" t="n">
-        <v>823.7221079154017</v>
+        <v>1671.666819491478</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>831.2305470109558</v>
+        <v>831.2305470109559</v>
       </c>
       <c r="C24" t="n">
         <v>680.576316571048</v>
       </c>
       <c r="D24" t="n">
-        <v>550.4873491925283</v>
+        <v>550.4873491925284</v>
       </c>
       <c r="E24" t="n">
-        <v>414.040858303416</v>
+        <v>414.0408583034161</v>
       </c>
       <c r="F24" t="n">
         <v>289.6090521865478</v>
@@ -6068,25 +6068,25 @@
         <v>46.45542532779876</v>
       </c>
       <c r="J24" t="n">
-        <v>46.45542532779876</v>
+        <v>189.5360828281034</v>
       </c>
       <c r="K24" t="n">
-        <v>46.45542532779876</v>
+        <v>560.4913408073724</v>
       </c>
       <c r="L24" t="n">
-        <v>598.8878941593545</v>
+        <v>1112.923809638928</v>
       </c>
       <c r="M24" t="n">
-        <v>1006.846664600854</v>
+        <v>1112.923809638928</v>
       </c>
       <c r="N24" t="n">
-        <v>1006.846664600854</v>
+        <v>1112.923809638928</v>
       </c>
       <c r="O24" t="n">
-        <v>1581.732553032364</v>
+        <v>1687.809698070438</v>
       </c>
       <c r="P24" t="n">
-        <v>2047.919613702049</v>
+        <v>2153.996758740123</v>
       </c>
       <c r="Q24" t="n">
         <v>2322.771266389938</v>
@@ -6101,10 +6101,10 @@
         <v>2014.347276675907</v>
       </c>
       <c r="U24" t="n">
-        <v>1804.305423522044</v>
+        <v>1804.305423522045</v>
       </c>
       <c r="V24" t="n">
-        <v>1581.765421893111</v>
+        <v>1581.765421893112</v>
       </c>
       <c r="W24" t="n">
         <v>1351.648176026398</v>
@@ -6113,7 +6113,7 @@
         <v>1162.34109837641</v>
       </c>
       <c r="Y24" t="n">
-        <v>983.0268814519171</v>
+        <v>983.0268814519172</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1419.491420079909</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="C25" t="n">
-        <v>1419.491420079909</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="D25" t="n">
-        <v>1332.073755033453</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="E25" t="n">
-        <v>1176.514942892656</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="F25" t="n">
-        <v>1176.514942892656</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="G25" t="n">
-        <v>1176.514942892656</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="H25" t="n">
-        <v>1176.514942892656</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I25" t="n">
-        <v>1176.514942892656</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J25" t="n">
-        <v>1176.514942892656</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="K25" t="n">
-        <v>1289.24334023984</v>
+        <v>159.1838226749828</v>
       </c>
       <c r="L25" t="n">
-        <v>1492.903839887025</v>
+        <v>362.8443223221674</v>
       </c>
       <c r="M25" t="n">
-        <v>1720.877275940372</v>
+        <v>590.8177583755148</v>
       </c>
       <c r="N25" t="n">
-        <v>1944.757666273733</v>
+        <v>814.6981487088756</v>
       </c>
       <c r="O25" t="n">
-        <v>2145.046932750233</v>
+        <v>1014.987415185376</v>
       </c>
       <c r="P25" t="n">
-        <v>2297.083130716191</v>
+        <v>1167.023613151334</v>
       </c>
       <c r="Q25" t="n">
-        <v>2322.771266389938</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="R25" t="n">
-        <v>2322.771266389938</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="S25" t="n">
-        <v>2124.683275048343</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="T25" t="n">
-        <v>1890.123432117804</v>
+        <v>958.151905894542</v>
       </c>
       <c r="U25" t="n">
-        <v>1604.69943877121</v>
+        <v>672.7279125479479</v>
       </c>
       <c r="V25" t="n">
-        <v>1604.69943877121</v>
+        <v>406.7485673687721</v>
       </c>
       <c r="W25" t="n">
-        <v>1604.69943877121</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="X25" t="n">
-        <v>1604.69943877121</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="Y25" t="n">
-        <v>1604.69943877121</v>
+        <v>123.4181652999497</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1926.280557310539</v>
+        <v>1114.654532801971</v>
       </c>
       <c r="C26" t="n">
-        <v>1926.280557310539</v>
+        <v>721.4790313049011</v>
       </c>
       <c r="D26" t="n">
-        <v>1540.839428527207</v>
+        <v>721.4790313049011</v>
       </c>
       <c r="E26" t="n">
-        <v>1138.255903643751</v>
+        <v>721.4790313049011</v>
       </c>
       <c r="F26" t="n">
-        <v>721.361465173729</v>
+        <v>721.4790313049011</v>
       </c>
       <c r="G26" t="n">
         <v>364.3442994521779</v>
@@ -6235,16 +6235,16 @@
         <v>621.3413137593084</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.227202190818</v>
+        <v>621.3413137593084</v>
       </c>
       <c r="N26" t="n">
-        <v>1771.113090622327</v>
+        <v>1100.561506815387</v>
       </c>
       <c r="O26" t="n">
-        <v>2311.031164165477</v>
+        <v>1640.479580358536</v>
       </c>
       <c r="P26" t="n">
-        <v>2311.031164165477</v>
+        <v>2073.911038127401</v>
       </c>
       <c r="Q26" t="n">
         <v>2322.771266389938</v>
@@ -6256,22 +6256,22 @@
         <v>2322.771266389938</v>
       </c>
       <c r="T26" t="n">
-        <v>2322.771266389938</v>
+        <v>2101.918290634888</v>
       </c>
       <c r="U26" t="n">
-        <v>2322.771266389938</v>
+        <v>1846.213947165396</v>
       </c>
       <c r="V26" t="n">
-        <v>2322.771266389938</v>
+        <v>1504.107137868914</v>
       </c>
       <c r="W26" t="n">
-        <v>2322.771266389938</v>
+        <v>1504.107137868914</v>
       </c>
       <c r="X26" t="n">
-        <v>2322.771266389938</v>
+        <v>1114.654532801971</v>
       </c>
       <c r="Y26" t="n">
-        <v>1926.280557310539</v>
+        <v>1114.654532801971</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>831.2305470109559</v>
       </c>
       <c r="C27" t="n">
-        <v>680.5763165710481</v>
+        <v>680.576316571048</v>
       </c>
       <c r="D27" t="n">
         <v>550.4873491925284</v>
@@ -6293,7 +6293,7 @@
         <v>414.0408583034161</v>
       </c>
       <c r="F27" t="n">
-        <v>289.609052186548</v>
+        <v>289.6090521865478</v>
       </c>
       <c r="G27" t="n">
         <v>169.872844804343</v>
@@ -6308,22 +6308,22 @@
         <v>46.45542532779876</v>
       </c>
       <c r="K27" t="n">
-        <v>417.4106833070677</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="L27" t="n">
-        <v>969.8431521386235</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="M27" t="n">
-        <v>969.8431521386235</v>
+        <v>431.9607761693444</v>
       </c>
       <c r="N27" t="n">
-        <v>1281.698317288743</v>
+        <v>1006.846664600854</v>
       </c>
       <c r="O27" t="n">
-        <v>1856.584205720253</v>
+        <v>1581.732553032364</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.771266389938</v>
+        <v>2047.919613702049</v>
       </c>
       <c r="Q27" t="n">
         <v>2322.771266389938</v>
@@ -6338,10 +6338,10 @@
         <v>2014.347276675907</v>
       </c>
       <c r="U27" t="n">
-        <v>1804.305423522044</v>
+        <v>1804.305423522045</v>
       </c>
       <c r="V27" t="n">
-        <v>1581.765421893111</v>
+        <v>1581.765421893112</v>
       </c>
       <c r="W27" t="n">
         <v>1351.648176026398</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>367.5045849806145</v>
+        <v>246.2758427470423</v>
       </c>
       <c r="C28" t="n">
-        <v>367.5045849806145</v>
+        <v>246.2758427470423</v>
       </c>
       <c r="D28" t="n">
-        <v>367.5045849806145</v>
+        <v>246.2758427470423</v>
       </c>
       <c r="E28" t="n">
-        <v>367.5045849806145</v>
+        <v>246.2758427470423</v>
       </c>
       <c r="F28" t="n">
-        <v>367.5045849806145</v>
+        <v>246.2758427470423</v>
       </c>
       <c r="G28" t="n">
-        <v>199.5218352909855</v>
+        <v>246.2758427470423</v>
       </c>
       <c r="H28" t="n">
-        <v>46.45542532779876</v>
+        <v>93.20943278385553</v>
       </c>
       <c r="I28" t="n">
         <v>46.45542532779876</v>
@@ -6411,25 +6411,25 @@
         <v>1081.009583341634</v>
       </c>
       <c r="S28" t="n">
-        <v>882.9215920000397</v>
+        <v>1081.009583341634</v>
       </c>
       <c r="T28" t="n">
-        <v>648.3617490695009</v>
+        <v>1081.009583341634</v>
       </c>
       <c r="U28" t="n">
-        <v>648.3617490695009</v>
+        <v>795.5855899950404</v>
       </c>
       <c r="V28" t="n">
-        <v>648.3617490695009</v>
+        <v>529.6062448158647</v>
       </c>
       <c r="W28" t="n">
-        <v>590.6166461639712</v>
+        <v>246.2758427470423</v>
       </c>
       <c r="X28" t="n">
-        <v>590.6166461639712</v>
+        <v>246.2758427470423</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.5045849806145</v>
+        <v>246.2758427470423</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1213.174712982345</v>
+        <v>969.8641305600661</v>
       </c>
       <c r="C29" t="n">
-        <v>1213.174712982345</v>
+        <v>576.6886290629966</v>
       </c>
       <c r="D29" t="n">
-        <v>1213.174712982345</v>
+        <v>364.3442994521779</v>
       </c>
       <c r="E29" t="n">
-        <v>810.591188098889</v>
+        <v>364.3442994521779</v>
       </c>
       <c r="F29" t="n">
-        <v>393.6967496288668</v>
+        <v>364.3442994521779</v>
       </c>
       <c r="G29" t="n">
-        <v>46.45542532779875</v>
+        <v>364.3442994521779</v>
       </c>
       <c r="H29" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I29" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J29" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="K29" t="n">
-        <v>46.45542532779875</v>
+        <v>58.19552755225982</v>
       </c>
       <c r="L29" t="n">
-        <v>621.3413137593083</v>
+        <v>633.0814159837695</v>
       </c>
       <c r="M29" t="n">
-        <v>1196.227202190818</v>
+        <v>1207.967304415279</v>
       </c>
       <c r="N29" t="n">
-        <v>1771.113090622327</v>
+        <v>1782.853192846789</v>
       </c>
       <c r="O29" t="n">
-        <v>2311.031164165477</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="P29" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="Q29" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="R29" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="S29" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="T29" t="n">
-        <v>2322.771266389937</v>
+        <v>2101.918290634888</v>
       </c>
       <c r="U29" t="n">
-        <v>2322.771266389937</v>
+        <v>2101.918290634888</v>
       </c>
       <c r="V29" t="n">
-        <v>1980.664457093456</v>
+        <v>1759.811481338406</v>
       </c>
       <c r="W29" t="n">
-        <v>1609.665422061743</v>
+        <v>1759.811481338406</v>
       </c>
       <c r="X29" t="n">
-        <v>1609.665422061743</v>
+        <v>1370.358876271463</v>
       </c>
       <c r="Y29" t="n">
-        <v>1213.174712982345</v>
+        <v>1370.358876271463</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>831.2305470109559</v>
       </c>
       <c r="C30" t="n">
-        <v>680.5763165710481</v>
+        <v>680.576316571048</v>
       </c>
       <c r="D30" t="n">
         <v>550.4873491925284</v>
@@ -6530,22 +6530,22 @@
         <v>414.0408583034161</v>
       </c>
       <c r="F30" t="n">
-        <v>289.6090521865479</v>
+        <v>289.6090521865478</v>
       </c>
       <c r="G30" t="n">
         <v>169.872844804343</v>
       </c>
       <c r="H30" t="n">
-        <v>84.70082499327431</v>
+        <v>84.70082499327432</v>
       </c>
       <c r="I30" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J30" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="K30" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="L30" t="n">
         <v>598.8878941593545</v>
@@ -6554,16 +6554,16 @@
         <v>1173.773782590864</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.659671022373</v>
+        <v>1748.659671022374</v>
       </c>
       <c r="O30" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="Q30" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="R30" t="n">
         <v>2318.946464025697</v>
@@ -6575,10 +6575,10 @@
         <v>2014.347276675907</v>
       </c>
       <c r="U30" t="n">
-        <v>1804.305423522044</v>
+        <v>1804.305423522045</v>
       </c>
       <c r="V30" t="n">
-        <v>1581.765421893111</v>
+        <v>1581.765421893112</v>
       </c>
       <c r="W30" t="n">
         <v>1351.648176026398</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>648.6135134567821</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="C31" t="n">
-        <v>648.6135134567821</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="D31" t="n">
-        <v>492.9804003592969</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="E31" t="n">
-        <v>492.9804003592969</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6544655722699</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="G31" t="n">
-        <v>335.6544655722699</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H31" t="n">
-        <v>182.5880556090831</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I31" t="n">
-        <v>57.65248778926542</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J31" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="K31" t="n">
         <v>159.1838226749828</v>
@@ -6645,28 +6645,28 @@
         <v>1192.711748825081</v>
       </c>
       <c r="R31" t="n">
-        <v>1132.125498144971</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="S31" t="n">
-        <v>934.0375068033761</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="T31" t="n">
-        <v>934.0375068033761</v>
+        <v>958.151905894542</v>
       </c>
       <c r="U31" t="n">
-        <v>648.6135134567821</v>
+        <v>672.7279125479479</v>
       </c>
       <c r="V31" t="n">
-        <v>648.6135134567821</v>
+        <v>406.7485673687721</v>
       </c>
       <c r="W31" t="n">
-        <v>648.6135134567821</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="X31" t="n">
-        <v>648.6135134567821</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="Y31" t="n">
-        <v>648.6135134567821</v>
+        <v>46.45542532779876</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>940.0916104839778</v>
+        <v>856.5253652948904</v>
       </c>
       <c r="C32" t="n">
-        <v>546.9161089869083</v>
+        <v>463.349863797821</v>
       </c>
       <c r="D32" t="n">
-        <v>161.474980203576</v>
+        <v>463.349863797821</v>
       </c>
       <c r="E32" t="n">
-        <v>161.474980203576</v>
+        <v>463.349863797821</v>
       </c>
       <c r="F32" t="n">
-        <v>161.474980203576</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="G32" t="n">
-        <v>161.474980203576</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H32" t="n">
-        <v>161.474980203576</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I32" t="n">
         <v>46.45542532779876</v>
@@ -6703,22 +6703,22 @@
         <v>46.45542532779876</v>
       </c>
       <c r="K32" t="n">
-        <v>480.8429123533649</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="L32" t="n">
-        <v>1055.728800784874</v>
+        <v>621.3413137593084</v>
       </c>
       <c r="M32" t="n">
-        <v>1055.728800784874</v>
+        <v>774.5358466464144</v>
       </c>
       <c r="N32" t="n">
-        <v>1100.561506815387</v>
+        <v>1349.421735077924</v>
       </c>
       <c r="O32" t="n">
-        <v>1640.479580358536</v>
+        <v>1889.339808621073</v>
       </c>
       <c r="P32" t="n">
-        <v>2073.911038127401</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="Q32" t="n">
         <v>2322.771266389938</v>
@@ -6733,19 +6733,19 @@
         <v>2101.918290634888</v>
       </c>
       <c r="U32" t="n">
-        <v>2101.918290634888</v>
+        <v>1846.213947165396</v>
       </c>
       <c r="V32" t="n">
-        <v>2101.918290634888</v>
+        <v>1504.107137868914</v>
       </c>
       <c r="W32" t="n">
-        <v>1730.919255603175</v>
+        <v>1133.108102837201</v>
       </c>
       <c r="X32" t="n">
-        <v>1730.919255603175</v>
+        <v>1133.108102837201</v>
       </c>
       <c r="Y32" t="n">
-        <v>1334.428546523777</v>
+        <v>1133.108102837201</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>831.2305470109559</v>
       </c>
       <c r="C33" t="n">
-        <v>680.5763165710481</v>
+        <v>680.576316571048</v>
       </c>
       <c r="D33" t="n">
         <v>550.4873491925284</v>
@@ -6767,7 +6767,7 @@
         <v>414.0408583034161</v>
       </c>
       <c r="F33" t="n">
-        <v>289.609052186548</v>
+        <v>289.6090521865478</v>
       </c>
       <c r="G33" t="n">
         <v>169.872844804343</v>
@@ -6782,16 +6782,16 @@
         <v>46.45542532779876</v>
       </c>
       <c r="K33" t="n">
-        <v>46.45542532779876</v>
+        <v>417.4106833070677</v>
       </c>
       <c r="L33" t="n">
-        <v>46.45542532779876</v>
+        <v>969.8431521386235</v>
       </c>
       <c r="M33" t="n">
-        <v>621.3413137593084</v>
+        <v>1544.729040570133</v>
       </c>
       <c r="N33" t="n">
-        <v>1006.846664600854</v>
+        <v>1544.729040570133</v>
       </c>
       <c r="O33" t="n">
         <v>1581.732553032364</v>
@@ -6812,10 +6812,10 @@
         <v>2014.347276675907</v>
       </c>
       <c r="U33" t="n">
-        <v>1804.305423522044</v>
+        <v>1804.305423522045</v>
       </c>
       <c r="V33" t="n">
-        <v>1581.765421893111</v>
+        <v>1581.765421893112</v>
       </c>
       <c r="W33" t="n">
         <v>1351.648176026398</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>760.0639145529473</v>
+        <v>795.5855899950404</v>
       </c>
       <c r="C34" t="n">
-        <v>760.0639145529473</v>
+        <v>682.9560350427375</v>
       </c>
       <c r="D34" t="n">
-        <v>760.0639145529473</v>
+        <v>527.3229219452523</v>
       </c>
       <c r="E34" t="n">
-        <v>604.5051024121498</v>
+        <v>371.7641098044548</v>
       </c>
       <c r="F34" t="n">
-        <v>447.1791676251227</v>
+        <v>214.4381750174278</v>
       </c>
       <c r="G34" t="n">
-        <v>279.1964179354937</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H34" t="n">
-        <v>126.130007972307</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I34" t="n">
         <v>46.45542532779876</v>
@@ -6882,28 +6882,28 @@
         <v>1192.711748825081</v>
       </c>
       <c r="R34" t="n">
-        <v>1192.711748825081</v>
+        <v>1081.009583341634</v>
       </c>
       <c r="S34" t="n">
-        <v>994.6237574834861</v>
+        <v>1081.009583341634</v>
       </c>
       <c r="T34" t="n">
-        <v>760.0639145529473</v>
+        <v>1081.009583341634</v>
       </c>
       <c r="U34" t="n">
-        <v>760.0639145529473</v>
+        <v>795.5855899950404</v>
       </c>
       <c r="V34" t="n">
-        <v>760.0639145529473</v>
+        <v>795.5855899950404</v>
       </c>
       <c r="W34" t="n">
-        <v>760.0639145529473</v>
+        <v>795.5855899950404</v>
       </c>
       <c r="X34" t="n">
-        <v>760.0639145529473</v>
+        <v>795.5855899950404</v>
       </c>
       <c r="Y34" t="n">
-        <v>760.0639145529473</v>
+        <v>795.5855899950404</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1922.276520678541</v>
+        <v>1701.423544923491</v>
       </c>
       <c r="C35" t="n">
-        <v>1529.101019181471</v>
+        <v>1308.248043426421</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.491317994408</v>
+        <v>922.8069146430892</v>
       </c>
       <c r="E35" t="n">
-        <v>875.9077931109525</v>
+        <v>922.8069146430892</v>
       </c>
       <c r="F35" t="n">
-        <v>459.0133546409302</v>
+        <v>891.9217836410867</v>
       </c>
       <c r="G35" t="n">
-        <v>46.45542532779876</v>
+        <v>479.3638543279552</v>
       </c>
       <c r="H35" t="n">
-        <v>46.45542532779876</v>
+        <v>161.474980203576</v>
       </c>
       <c r="I35" t="n">
         <v>46.45542532779876</v>
       </c>
       <c r="J35" t="n">
-        <v>46.45542532779876</v>
+        <v>241.4175218674188</v>
       </c>
       <c r="K35" t="n">
-        <v>480.8429123533649</v>
+        <v>241.4175218674188</v>
       </c>
       <c r="L35" t="n">
-        <v>480.8429123533649</v>
+        <v>816.3034102989285</v>
       </c>
       <c r="M35" t="n">
-        <v>525.6756183838773</v>
+        <v>1065.593691927027</v>
       </c>
       <c r="N35" t="n">
-        <v>1100.561506815387</v>
+        <v>1640.479580358536</v>
       </c>
       <c r="O35" t="n">
         <v>1640.479580358536</v>
@@ -6967,22 +6967,22 @@
         <v>2322.771266389938</v>
       </c>
       <c r="T35" t="n">
-        <v>2322.771266389938</v>
+        <v>2101.918290634888</v>
       </c>
       <c r="U35" t="n">
-        <v>2322.771266389938</v>
+        <v>2101.918290634888</v>
       </c>
       <c r="V35" t="n">
-        <v>2322.771266389938</v>
+        <v>2101.918290634888</v>
       </c>
       <c r="W35" t="n">
-        <v>2322.771266389938</v>
+        <v>2101.918290634888</v>
       </c>
       <c r="X35" t="n">
-        <v>2322.771266389938</v>
+        <v>2101.918290634888</v>
       </c>
       <c r="Y35" t="n">
-        <v>2322.771266389938</v>
+        <v>2101.918290634888</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>831.2305470109559</v>
       </c>
       <c r="C36" t="n">
-        <v>680.5763165710481</v>
+        <v>680.576316571048</v>
       </c>
       <c r="D36" t="n">
         <v>550.4873491925284</v>
@@ -7004,34 +7004,34 @@
         <v>414.0408583034161</v>
       </c>
       <c r="F36" t="n">
-        <v>289.6090521865479</v>
+        <v>289.6090521865478</v>
       </c>
       <c r="G36" t="n">
         <v>169.872844804343</v>
       </c>
       <c r="H36" t="n">
-        <v>84.7008249932743</v>
+        <v>84.70082499327432</v>
       </c>
       <c r="I36" t="n">
         <v>46.45542532779876</v>
       </c>
       <c r="J36" t="n">
-        <v>46.45542532779876</v>
+        <v>189.5360828281034</v>
       </c>
       <c r="K36" t="n">
-        <v>46.45542532779876</v>
+        <v>560.4913408073724</v>
       </c>
       <c r="L36" t="n">
-        <v>46.45542532779876</v>
+        <v>1006.846664600854</v>
       </c>
       <c r="M36" t="n">
-        <v>621.3413137593084</v>
+        <v>1006.846664600854</v>
       </c>
       <c r="N36" t="n">
-        <v>1196.227202190818</v>
+        <v>1581.732553032364</v>
       </c>
       <c r="O36" t="n">
-        <v>1771.113090622327</v>
+        <v>1581.732553032364</v>
       </c>
       <c r="P36" t="n">
         <v>2047.919613702049</v>
@@ -7049,10 +7049,10 @@
         <v>2014.347276675907</v>
       </c>
       <c r="U36" t="n">
-        <v>1804.305423522044</v>
+        <v>1804.305423522045</v>
       </c>
       <c r="V36" t="n">
-        <v>1581.765421893111</v>
+        <v>1581.765421893112</v>
       </c>
       <c r="W36" t="n">
         <v>1351.648176026398</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>216.6605432618096</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="C37" t="n">
         <v>46.45542532779876</v>
@@ -7125,22 +7125,22 @@
         <v>994.6237574834861</v>
       </c>
       <c r="T37" t="n">
-        <v>760.0639145529473</v>
+        <v>994.6237574834861</v>
       </c>
       <c r="U37" t="n">
-        <v>760.0639145529473</v>
+        <v>829.8454947928138</v>
       </c>
       <c r="V37" t="n">
-        <v>760.0639145529473</v>
+        <v>563.8661496136381</v>
       </c>
       <c r="W37" t="n">
-        <v>760.0639145529473</v>
+        <v>280.5357475448156</v>
       </c>
       <c r="X37" t="n">
-        <v>525.9835923359303</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="Y37" t="n">
-        <v>302.8715311525737</v>
+        <v>46.45542532779876</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1926.280557310539</v>
+        <v>1308.816222111109</v>
       </c>
       <c r="C38" t="n">
-        <v>1533.105055813469</v>
+        <v>1308.816222111109</v>
       </c>
       <c r="D38" t="n">
-        <v>1147.663927030137</v>
+        <v>1308.816222111109</v>
       </c>
       <c r="E38" t="n">
-        <v>745.0804021466813</v>
+        <v>1308.816222111109</v>
       </c>
       <c r="F38" t="n">
-        <v>328.1859636766591</v>
+        <v>891.9217836410867</v>
       </c>
       <c r="G38" t="n">
-        <v>46.45542532779875</v>
+        <v>479.3638543279552</v>
       </c>
       <c r="H38" t="n">
-        <v>46.45542532779875</v>
+        <v>161.474980203576</v>
       </c>
       <c r="I38" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J38" t="n">
-        <v>46.45542532779875</v>
+        <v>241.4175218674188</v>
       </c>
       <c r="K38" t="n">
-        <v>46.45542532779875</v>
+        <v>241.4175218674188</v>
       </c>
       <c r="L38" t="n">
-        <v>525.675618383877</v>
+        <v>241.4175218674188</v>
       </c>
       <c r="M38" t="n">
-        <v>525.675618383877</v>
+        <v>816.3034102989285</v>
       </c>
       <c r="N38" t="n">
         <v>1100.561506815387</v>
@@ -7192,34 +7192,34 @@
         <v>1640.479580358536</v>
       </c>
       <c r="P38" t="n">
-        <v>2073.9110381274</v>
+        <v>2073.911038127401</v>
       </c>
       <c r="Q38" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="R38" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="S38" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="T38" t="n">
-        <v>2322.771266389937</v>
+        <v>2101.918290634888</v>
       </c>
       <c r="U38" t="n">
-        <v>2322.771266389937</v>
+        <v>1846.213947165396</v>
       </c>
       <c r="V38" t="n">
-        <v>2322.771266389937</v>
+        <v>1846.213947165396</v>
       </c>
       <c r="W38" t="n">
-        <v>2322.771266389937</v>
+        <v>1698.268827178052</v>
       </c>
       <c r="X38" t="n">
-        <v>2322.771266389937</v>
+        <v>1308.816222111109</v>
       </c>
       <c r="Y38" t="n">
-        <v>1926.280557310539</v>
+        <v>1308.816222111109</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>831.2305470109558</v>
+        <v>831.2305470109559</v>
       </c>
       <c r="C39" t="n">
         <v>680.576316571048</v>
       </c>
       <c r="D39" t="n">
-        <v>550.4873491925283</v>
+        <v>550.4873491925284</v>
       </c>
       <c r="E39" t="n">
-        <v>414.040858303416</v>
+        <v>414.0408583034161</v>
       </c>
       <c r="F39" t="n">
         <v>289.6090521865478</v>
@@ -7250,31 +7250,31 @@
         <v>84.70082499327432</v>
       </c>
       <c r="I39" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J39" t="n">
         <v>189.5360828281034</v>
       </c>
       <c r="K39" t="n">
-        <v>189.5360828281034</v>
+        <v>560.4913408073724</v>
       </c>
       <c r="L39" t="n">
-        <v>741.9685516596592</v>
+        <v>1112.923809638928</v>
       </c>
       <c r="M39" t="n">
-        <v>1316.854440091169</v>
+        <v>1281.698317288743</v>
       </c>
       <c r="N39" t="n">
-        <v>1747.885377958428</v>
+        <v>1856.584205720253</v>
       </c>
       <c r="O39" t="n">
-        <v>2322.771266389937</v>
+        <v>1856.584205720253</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="Q39" t="n">
-        <v>2322.771266389937</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="R39" t="n">
         <v>2318.946464025697</v>
@@ -7286,10 +7286,10 @@
         <v>2014.347276675907</v>
       </c>
       <c r="U39" t="n">
-        <v>1804.305423522044</v>
+        <v>1804.305423522045</v>
       </c>
       <c r="V39" t="n">
-        <v>1581.765421893111</v>
+        <v>1581.765421893112</v>
       </c>
       <c r="W39" t="n">
         <v>1351.648176026398</v>
@@ -7298,7 +7298,7 @@
         <v>1162.34109837641</v>
       </c>
       <c r="Y39" t="n">
-        <v>983.0268814519171</v>
+        <v>983.0268814519172</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>214.4381750174277</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="C40" t="n">
-        <v>214.4381750174277</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="D40" t="n">
-        <v>214.4381750174277</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="E40" t="n">
-        <v>214.4381750174277</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="F40" t="n">
-        <v>214.4381750174277</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="G40" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H40" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I40" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J40" t="n">
-        <v>46.45542532779875</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="K40" t="n">
         <v>159.1838226749828</v>
@@ -7359,25 +7359,25 @@
         <v>1192.711748825081</v>
       </c>
       <c r="S40" t="n">
-        <v>1017.752413363383</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="T40" t="n">
-        <v>783.1925704328441</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="U40" t="n">
-        <v>497.7685770862501</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="V40" t="n">
-        <v>497.7685770862501</v>
+        <v>926.732403645905</v>
       </c>
       <c r="W40" t="n">
-        <v>214.4381750174277</v>
+        <v>643.4020015770827</v>
       </c>
       <c r="X40" t="n">
-        <v>214.4381750174277</v>
+        <v>409.3216793600658</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4381750174277</v>
+        <v>186.2096181767091</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1018.207096053717</v>
+        <v>1456.934344009439</v>
       </c>
       <c r="C41" t="n">
-        <v>1018.207096053717</v>
+        <v>1456.934344009439</v>
       </c>
       <c r="D41" t="n">
-        <v>1018.207096053717</v>
+        <v>1183.822262805656</v>
       </c>
       <c r="E41" t="n">
-        <v>1018.207096053717</v>
+        <v>781.2387379222002</v>
       </c>
       <c r="F41" t="n">
-        <v>601.3126575836951</v>
+        <v>364.3442994521779</v>
       </c>
       <c r="G41" t="n">
-        <v>188.7547282705636</v>
+        <v>364.3442994521779</v>
       </c>
       <c r="H41" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I41" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J41" t="n">
-        <v>239.7094159453428</v>
+        <v>241.4175218674188</v>
       </c>
       <c r="K41" t="n">
-        <v>674.0969029709089</v>
+        <v>675.8050088929849</v>
       </c>
       <c r="L41" t="n">
-        <v>1015.156210711587</v>
+        <v>1250.690897324494</v>
       </c>
       <c r="M41" t="n">
-        <v>1015.156210711587</v>
+        <v>1250.690897324494</v>
       </c>
       <c r="N41" t="n">
-        <v>1015.156210711587</v>
+        <v>1250.690897324494</v>
       </c>
       <c r="O41" t="n">
-        <v>1555.074284254736</v>
+        <v>1640.479580358536</v>
       </c>
       <c r="P41" t="n">
-        <v>1988.505742023601</v>
+        <v>2073.911038127401</v>
       </c>
       <c r="Q41" t="n">
-        <v>2237.365970286138</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="R41" t="n">
-        <v>2237.365970286138</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="S41" t="n">
-        <v>2237.365970286138</v>
+        <v>2170.040188337633</v>
       </c>
       <c r="T41" t="n">
-        <v>2016.512994531088</v>
+        <v>2170.040188337633</v>
       </c>
       <c r="U41" t="n">
-        <v>1760.808651061596</v>
+        <v>2170.040188337633</v>
       </c>
       <c r="V41" t="n">
-        <v>1418.701841765114</v>
+        <v>1827.933379041152</v>
       </c>
       <c r="W41" t="n">
-        <v>1418.701841765114</v>
+        <v>1456.934344009439</v>
       </c>
       <c r="X41" t="n">
-        <v>1418.701841765114</v>
+        <v>1456.934344009439</v>
       </c>
       <c r="Y41" t="n">
-        <v>1418.701841765114</v>
+        <v>1456.934344009439</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>745.8252509071565</v>
+        <v>831.2305470109559</v>
       </c>
       <c r="C42" t="n">
-        <v>595.1710204672487</v>
+        <v>680.5763165710481</v>
       </c>
       <c r="D42" t="n">
-        <v>465.082053088729</v>
+        <v>550.4873491925284</v>
       </c>
       <c r="E42" t="n">
-        <v>328.6355621996167</v>
+        <v>414.0408583034161</v>
       </c>
       <c r="F42" t="n">
-        <v>204.2037560827486</v>
+        <v>289.6090521865479</v>
       </c>
       <c r="G42" t="n">
-        <v>84.46754870054365</v>
+        <v>169.872844804343</v>
       </c>
       <c r="H42" t="n">
-        <v>44.74731940572276</v>
+        <v>84.70082499327432</v>
       </c>
       <c r="I42" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J42" t="n">
-        <v>44.74731940572276</v>
+        <v>189.5360828281034</v>
       </c>
       <c r="K42" t="n">
-        <v>415.7025773849917</v>
+        <v>189.5360828281034</v>
       </c>
       <c r="L42" t="n">
-        <v>968.1350462165474</v>
+        <v>598.1136010954091</v>
       </c>
       <c r="M42" t="n">
-        <v>968.1350462165474</v>
+        <v>1172.999489526919</v>
       </c>
       <c r="N42" t="n">
-        <v>1408.76623995243</v>
+        <v>1747.885377958428</v>
       </c>
       <c r="O42" t="n">
-        <v>1962.514317598249</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="P42" t="n">
-        <v>1962.514317598249</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="Q42" t="n">
-        <v>2237.365970286138</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="R42" t="n">
-        <v>2233.541167921898</v>
+        <v>2318.946464025697</v>
       </c>
       <c r="S42" t="n">
-        <v>2104.621414777979</v>
+        <v>2190.026710881778</v>
       </c>
       <c r="T42" t="n">
-        <v>1928.941980572108</v>
+        <v>2014.347276675907</v>
       </c>
       <c r="U42" t="n">
-        <v>1718.900127418245</v>
+        <v>1804.305423522044</v>
       </c>
       <c r="V42" t="n">
-        <v>1496.360125789312</v>
+        <v>1581.765421893111</v>
       </c>
       <c r="W42" t="n">
-        <v>1266.242879922599</v>
+        <v>1351.648176026398</v>
       </c>
       <c r="X42" t="n">
-        <v>1076.935802272611</v>
+        <v>1162.34109837641</v>
       </c>
       <c r="Y42" t="n">
-        <v>897.6215853481178</v>
+        <v>983.0268814519172</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="C43" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="D43" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="E43" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="F43" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="G43" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H43" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I43" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J43" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="K43" t="n">
-        <v>157.4757167529067</v>
+        <v>159.1838226749828</v>
       </c>
       <c r="L43" t="n">
-        <v>361.1362164000914</v>
+        <v>362.8443223221674</v>
       </c>
       <c r="M43" t="n">
-        <v>589.1096524534388</v>
+        <v>590.8177583755148</v>
       </c>
       <c r="N43" t="n">
-        <v>812.9900427867996</v>
+        <v>814.6981487088756</v>
       </c>
       <c r="O43" t="n">
-        <v>1013.2793092633</v>
+        <v>1014.987415185376</v>
       </c>
       <c r="P43" t="n">
-        <v>1165.315507229258</v>
+        <v>1167.023613151334</v>
       </c>
       <c r="Q43" t="n">
-        <v>1191.003642903005</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="R43" t="n">
-        <v>1191.003642903005</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="S43" t="n">
-        <v>1191.003642903005</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="T43" t="n">
-        <v>956.4437999724661</v>
+        <v>1104.301227105748</v>
       </c>
       <c r="U43" t="n">
-        <v>671.019806625872</v>
+        <v>818.8772337591535</v>
       </c>
       <c r="V43" t="n">
-        <v>405.0404614466962</v>
+        <v>552.8978885799777</v>
       </c>
       <c r="W43" t="n">
-        <v>405.0404614466962</v>
+        <v>269.5674865111554</v>
       </c>
       <c r="X43" t="n">
-        <v>267.8593805890794</v>
+        <v>269.5674865111554</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1440.380515495342</v>
+        <v>1671.666819491478</v>
       </c>
       <c r="C44" t="n">
-        <v>1047.205013998273</v>
+        <v>1278.491317994408</v>
       </c>
       <c r="D44" t="n">
-        <v>1047.205013998273</v>
+        <v>1278.491317994408</v>
       </c>
       <c r="E44" t="n">
-        <v>644.6214891148175</v>
+        <v>875.9077931109525</v>
       </c>
       <c r="F44" t="n">
-        <v>227.7270506447952</v>
+        <v>459.0133546409302</v>
       </c>
       <c r="G44" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H44" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I44" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J44" t="n">
-        <v>172.7368736826663</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="K44" t="n">
-        <v>397.5400745344302</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="L44" t="n">
-        <v>700.4144688575039</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="M44" t="n">
-        <v>1058.005724528688</v>
+        <v>525.6756183838773</v>
       </c>
       <c r="N44" t="n">
-        <v>1424.382156013022</v>
+        <v>1100.561506815387</v>
       </c>
       <c r="O44" t="n">
-        <v>1761.673111240393</v>
+        <v>1640.479580358536</v>
       </c>
       <c r="P44" t="n">
-        <v>2027.117487466591</v>
+        <v>2073.911038127401</v>
       </c>
       <c r="Q44" t="n">
-        <v>2195.142874022336</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="R44" t="n">
-        <v>2237.365970286138</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="S44" t="n">
-        <v>2237.365970286138</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="T44" t="n">
-        <v>2237.365970286138</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="U44" t="n">
-        <v>2237.365970286138</v>
+        <v>2068.157528570876</v>
       </c>
       <c r="V44" t="n">
-        <v>2237.365970286138</v>
+        <v>2068.157528570876</v>
       </c>
       <c r="W44" t="n">
-        <v>2237.365970286138</v>
+        <v>2068.157528570876</v>
       </c>
       <c r="X44" t="n">
-        <v>2237.365970286138</v>
+        <v>2068.157528570876</v>
       </c>
       <c r="Y44" t="n">
-        <v>1840.875261206739</v>
+        <v>1671.666819491478</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>777.9656081809549</v>
+        <v>831.2305470109559</v>
       </c>
       <c r="C45" t="n">
-        <v>627.3113777410471</v>
+        <v>680.576316571048</v>
       </c>
       <c r="D45" t="n">
-        <v>497.2224103625274</v>
+        <v>550.4873491925284</v>
       </c>
       <c r="E45" t="n">
-        <v>360.7759194734151</v>
+        <v>414.0408583034161</v>
       </c>
       <c r="F45" t="n">
-        <v>236.3441133565469</v>
+        <v>289.6090521865478</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8568799575838</v>
+        <v>169.872844804343</v>
       </c>
       <c r="H45" t="n">
-        <v>44.74731940572276</v>
+        <v>84.70082499327432</v>
       </c>
       <c r="I45" t="n">
-        <v>49.4092194113944</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J45" t="n">
-        <v>113.4073206004712</v>
+        <v>189.5360828281034</v>
       </c>
       <c r="K45" t="n">
-        <v>460.3421769544202</v>
+        <v>560.4913408073724</v>
       </c>
       <c r="L45" t="n">
-        <v>705.8384259085365</v>
+        <v>1112.923809638928</v>
       </c>
       <c r="M45" t="n">
-        <v>1004.902933439968</v>
+        <v>1687.809698070438</v>
       </c>
       <c r="N45" t="n">
-        <v>1321.248407786778</v>
+        <v>1687.809698070438</v>
       </c>
       <c r="O45" t="n">
-        <v>1596.19984683001</v>
+        <v>1856.584205720253</v>
       </c>
       <c r="P45" t="n">
-        <v>1804.306123751127</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="Q45" t="n">
-        <v>2235.415544184617</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="R45" t="n">
-        <v>2237.365970286138</v>
+        <v>2318.946464025697</v>
       </c>
       <c r="S45" t="n">
-        <v>2131.645361085337</v>
+        <v>2190.026710881778</v>
       </c>
       <c r="T45" t="n">
-        <v>1961.000168504903</v>
+        <v>2014.347276675907</v>
       </c>
       <c r="U45" t="n">
-        <v>1751.040484692043</v>
+        <v>1804.305423522045</v>
       </c>
       <c r="V45" t="n">
-        <v>1528.50048306311</v>
+        <v>1581.765421893112</v>
       </c>
       <c r="W45" t="n">
-        <v>1298.383237196397</v>
+        <v>1351.648176026398</v>
       </c>
       <c r="X45" t="n">
-        <v>1109.076159546409</v>
+        <v>1162.34109837641</v>
       </c>
       <c r="Y45" t="n">
-        <v>929.7619426219162</v>
+        <v>983.0268814519172</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>245.8031484108184</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="C46" t="n">
-        <v>202.0732541927498</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="D46" t="n">
-        <v>202.0732541927498</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="E46" t="n">
-        <v>202.0732541927498</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="F46" t="n">
-        <v>44.74731940572276</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="G46" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H46" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I46" t="n">
-        <v>44.74731940572276</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J46" t="n">
-        <v>106.3297018426565</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="K46" t="n">
-        <v>338.2909198767675</v>
+        <v>159.1838226749828</v>
       </c>
       <c r="L46" t="n">
-        <v>694.5283795798211</v>
+        <v>362.8443223221674</v>
       </c>
       <c r="M46" t="n">
-        <v>1083.372827143707</v>
+        <v>590.8177583755148</v>
       </c>
       <c r="N46" t="n">
-        <v>1464.299075898276</v>
+        <v>814.6981487088756</v>
       </c>
       <c r="O46" t="n">
-        <v>1809.645611235523</v>
+        <v>1014.987415185376</v>
       </c>
       <c r="P46" t="n">
-        <v>2085.803362129406</v>
+        <v>1167.023613151334</v>
       </c>
       <c r="Q46" t="n">
-        <v>2197.426827329545</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="R46" t="n">
-        <v>2132.805987992079</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="S46" t="n">
-        <v>1952.966056137311</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="T46" t="n">
-        <v>1722.880176669897</v>
+        <v>958.151905894542</v>
       </c>
       <c r="U46" t="n">
-        <v>1437.513297750491</v>
+        <v>672.7279125479479</v>
       </c>
       <c r="V46" t="n">
-        <v>1171.533952571316</v>
+        <v>406.7485673687721</v>
       </c>
       <c r="W46" t="n">
-        <v>888.2035505024933</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="X46" t="n">
-        <v>654.1232282854763</v>
+        <v>123.4181652999497</v>
       </c>
       <c r="Y46" t="n">
-        <v>431.0111671021197</v>
+        <v>123.4181652999497</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>260.8654321875572</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L2" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>370.971069848242</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8060,13 +8060,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
@@ -8224,19 +8224,19 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O5" t="n">
-        <v>267.3708664324162</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N6" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O6" t="n">
-        <v>313.3571814962058</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>151.6367735386038</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>373.0193783173885</v>
@@ -8467,13 +8467,13 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>370.2334600314132</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,13 +8531,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>319.5579104714845</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M9" t="n">
         <v>92.38712204931191</v>
@@ -8546,10 +8546,10 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>193.4954296289271</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q9" t="n">
         <v>320.9491282940651</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>66.8593090223543</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>359.3039316140292</v>
+        <v>359.3039316140293</v>
       </c>
       <c r="L11" t="n">
-        <v>351.1688478795922</v>
+        <v>58.75652045681615</v>
       </c>
       <c r="M11" t="n">
-        <v>325.1825731200669</v>
+        <v>44.58488518912007</v>
       </c>
       <c r="N11" t="n">
-        <v>42.27704711602607</v>
+        <v>334.6893745388019</v>
       </c>
       <c r="O11" t="n">
-        <v>48.67649131215641</v>
+        <v>48.67649131215622</v>
       </c>
       <c r="P11" t="n">
-        <v>356.6087588684055</v>
+        <v>188.9010682113146</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.83741748749466</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8771,7 +8771,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>37.86348895248241</v>
+        <v>330.2758163752584</v>
       </c>
       <c r="L12" t="n">
         <v>312.910671316823</v>
@@ -8783,13 +8783,13 @@
         <v>138.1198317255464</v>
       </c>
       <c r="O12" t="n">
-        <v>16.4623296246354</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P12" t="n">
-        <v>318.318225622608</v>
+        <v>25.905898199832</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.09263685995599</v>
+        <v>50.09263685995591</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8929,7 +8929,7 @@
         <v>66.85930902235421</v>
       </c>
       <c r="K14" t="n">
-        <v>359.3039316140292</v>
+        <v>66.89160419125324</v>
       </c>
       <c r="L14" t="n">
         <v>58.75652045681615</v>
@@ -8938,16 +8938,16 @@
         <v>336.9972126118961</v>
       </c>
       <c r="N14" t="n">
-        <v>42.27704711602587</v>
+        <v>71.5007671050159</v>
       </c>
       <c r="O14" t="n">
-        <v>329.274179243103</v>
+        <v>341.0888187349323</v>
       </c>
       <c r="P14" t="n">
         <v>356.6087588684055</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.83741748749453</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>330.2758163752583</v>
+        <v>330.2758163752584</v>
       </c>
       <c r="L15" t="n">
-        <v>20.49834389404698</v>
+        <v>312.910671316823</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8092335503006</v>
+        <v>303.62387304213</v>
       </c>
       <c r="N15" t="n">
-        <v>2.048060461573954</v>
+        <v>138.1198317255464</v>
       </c>
       <c r="O15" t="n">
-        <v>308.8746570474112</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P15" t="n">
-        <v>318.318225622608</v>
+        <v>25.905898199832</v>
       </c>
       <c r="Q15" t="n">
         <v>50.09263685995591</v>
@@ -9169,10 +9169,10 @@
         <v>66.89160419125324</v>
       </c>
       <c r="L17" t="n">
-        <v>639.4493370543006</v>
+        <v>58.75652045681615</v>
       </c>
       <c r="M17" t="n">
-        <v>625.2777017866044</v>
+        <v>528.6456862558661</v>
       </c>
       <c r="N17" t="n">
         <v>622.9698637135103</v>
@@ -9181,10 +9181,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>64.19643144562944</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>91.69610660311194</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,25 +9242,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>58.500627013276</v>
       </c>
       <c r="M18" t="n">
-        <v>326.216762942707</v>
+        <v>591.9043622168383</v>
       </c>
       <c r="N18" t="n">
         <v>582.7408770590584</v>
       </c>
       <c r="O18" t="n">
-        <v>16.46232962463525</v>
+        <v>597.1551462221198</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>25.905898199832</v>
       </c>
       <c r="Q18" t="n">
         <v>50.09263685995591</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>66.85930902235421</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>639.4493370543006</v>
+        <v>58.75652045681615</v>
       </c>
       <c r="M20" t="n">
-        <v>44.58488518912007</v>
+        <v>341.244414778059</v>
       </c>
       <c r="N20" t="n">
-        <v>579.8147193607675</v>
+        <v>622.9698637135103</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>64.19643144562944</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>79.83741748749453</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K21" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>556.393127062873</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N21" t="n">
-        <v>582.7408770590584</v>
+        <v>39.42534577695836</v>
       </c>
       <c r="O21" t="n">
-        <v>16.46232962463525</v>
+        <v>597.1551462221198</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>66.85930902235421</v>
+        <v>112.1448706693365</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>639.4493370543006</v>
+        <v>58.75652045681615</v>
       </c>
       <c r="M23" t="n">
-        <v>625.2777017866044</v>
+        <v>44.58488518912007</v>
       </c>
       <c r="N23" t="n">
         <v>622.9698637135103</v>
       </c>
       <c r="O23" t="n">
-        <v>48.67649131215622</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>182.6516725992093</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>79.83741748749453</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>423.2911117218787</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N24" t="n">
         <v>2.048060461573954</v>
       </c>
       <c r="O24" t="n">
-        <v>597.1551462221198</v>
+        <v>597.1551462221197</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>220.5719375163347</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9883,19 +9883,19 @@
         <v>639.4493370543006</v>
       </c>
       <c r="M26" t="n">
-        <v>625.2777017866044</v>
+        <v>44.58488518912007</v>
       </c>
       <c r="N26" t="n">
-        <v>622.9698637135103</v>
+        <v>526.3378481827719</v>
       </c>
       <c r="O26" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>64.19643144562944</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.69610660311194</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9956,16 +9956,16 @@
         <v>52.17609846406338</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>37.86348895248231</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404698</v>
       </c>
       <c r="M27" t="n">
-        <v>11.2115456193539</v>
+        <v>400.6108899037434</v>
       </c>
       <c r="N27" t="n">
-        <v>317.053277784927</v>
+        <v>582.7408770590584</v>
       </c>
       <c r="O27" t="n">
         <v>597.1551462221198</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10114,22 +10114,22 @@
         <v>66.85930902235421</v>
       </c>
       <c r="K29" t="n">
-        <v>66.89160419125324</v>
+        <v>78.75029330687047</v>
       </c>
       <c r="L29" t="n">
-        <v>639.4493370543005</v>
+        <v>639.4493370543006</v>
       </c>
       <c r="M29" t="n">
         <v>625.2777017866044</v>
       </c>
       <c r="N29" t="n">
-        <v>622.9698637135102</v>
+        <v>622.9698637135103</v>
       </c>
       <c r="O29" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>76.05512056124637</v>
+        <v>64.19643144562944</v>
       </c>
       <c r="Q29" t="n">
         <v>79.83741748749453</v>
@@ -10199,10 +10199,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>591.9043622168382</v>
+        <v>591.9043622168383</v>
       </c>
       <c r="N30" t="n">
-        <v>582.7408770590582</v>
+        <v>582.7408770590584</v>
       </c>
       <c r="O30" t="n">
         <v>596.3730320161139</v>
@@ -10351,16 +10351,16 @@
         <v>66.85930902235421</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>66.89160419125324</v>
       </c>
       <c r="L32" t="n">
         <v>639.4493370543006</v>
       </c>
       <c r="M32" t="n">
-        <v>44.58488518912007</v>
+        <v>199.3268376003383</v>
       </c>
       <c r="N32" t="n">
-        <v>87.56260876300826</v>
+        <v>622.9698637135103</v>
       </c>
       <c r="O32" t="n">
         <v>594.0482827698827</v>
@@ -10369,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>79.83741748749453</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10430,19 +10430,19 @@
         <v>52.17609846406338</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>20.49834389404698</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>591.9043622168383</v>
       </c>
       <c r="N33" t="n">
-        <v>391.4474047459635</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O33" t="n">
-        <v>597.1551462221198</v>
+        <v>53.83961494001954</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>66.85930902235421</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>66.89160419125324</v>
       </c>
       <c r="L35" t="n">
-        <v>58.75652045681615</v>
+        <v>639.4493370543006</v>
       </c>
       <c r="M35" t="n">
-        <v>89.87044683610239</v>
+        <v>296.3932504700273</v>
       </c>
       <c r="N35" t="n">
         <v>622.9698637135103</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>48.67649131215622</v>
       </c>
       <c r="P35" t="n">
         <v>502.0059847475129</v>
@@ -10664,25 +10664,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>20.49834389404698</v>
+        <v>471.3623073218063</v>
       </c>
       <c r="M36" t="n">
-        <v>591.9043622168383</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N36" t="n">
         <v>582.7408770590584</v>
       </c>
       <c r="O36" t="n">
-        <v>597.1551462221198</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P36" t="n">
-        <v>305.5084467652073</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>66.85930902235421</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>66.89160419125324</v>
       </c>
       <c r="L38" t="n">
-        <v>542.8173215235619</v>
+        <v>58.75652045681615</v>
       </c>
       <c r="M38" t="n">
-        <v>44.58488518912007</v>
+        <v>625.2777017866046</v>
       </c>
       <c r="N38" t="n">
-        <v>622.9698637135102</v>
+        <v>329.406437536691</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10904,22 +10904,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>591.9043622168383</v>
+        <v>181.6908462757326</v>
       </c>
       <c r="N39" t="n">
-        <v>437.4328461860782</v>
+        <v>582.7408770590584</v>
       </c>
       <c r="O39" t="n">
-        <v>597.1551462221196</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P39" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>50.09263685995591</v>
@@ -11065,7 +11065,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>403.2608717100265</v>
+        <v>639.4493370543006</v>
       </c>
       <c r="M41" t="n">
         <v>44.58488518912007</v>
@@ -11074,7 +11074,7 @@
         <v>42.27704711602587</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>442.4024337707842</v>
       </c>
       <c r="P41" t="n">
         <v>502.0059847475129</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>37.86348895248231</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>433.2029078004163</v>
       </c>
       <c r="M42" t="n">
-        <v>11.2115456193539</v>
+        <v>591.9043622168383</v>
       </c>
       <c r="N42" t="n">
-        <v>447.130074336203</v>
+        <v>582.7408770590584</v>
       </c>
       <c r="O42" t="n">
-        <v>575.8038221961699</v>
+        <v>597.1551462221198</v>
       </c>
       <c r="P42" t="n">
         <v>25.905898199832</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>50.09263685995591</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>66.85930902235421</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>66.89160419125324</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>58.75652045681615</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>528.6456862558661</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>622.9698637135103</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>188.6376483667011</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>591.9043622168383</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>186.941630281014</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>50.09263685995591</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -22564,7 +22564,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22603,19 +22603,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>50.64557536806387</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>189.9761750869214</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22676,7 +22676,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>72.45597860490777</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>126.2886151492663</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -22707,7 +22707,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -22722,13 +22722,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,10 +22758,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3.400886175297046</v>
+        <v>216.7670188712789</v>
       </c>
       <c r="U4" t="n">
-        <v>105.4006976970091</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>196.0080627329375</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22834,16 +22834,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -22852,7 +22852,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>346.1292158733077</v>
       </c>
     </row>
     <row r="6">
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -22919,19 +22919,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>152.2735888923496</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>90.43139316068071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>135.6298446224879</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23023,22 +23023,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>196.0080627329374</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23074,7 +23074,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>18.71596951449399</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23086,10 +23086,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="9">
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>128.5957162214335</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>128.5957162214335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>134.7300771308258</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23263,22 +23263,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>89.17439007272304</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>106.145362211845</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>120.3131666625461</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>150.8755720260192</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H11" t="n">
-        <v>314.7099853831354</v>
+        <v>22.29765796035929</v>
       </c>
       <c r="I11" t="n">
-        <v>113.8693593270195</v>
+        <v>35.69199994255916</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T11" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>46.27341378074073</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>35.36111914494946</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>118.5388453083828</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>84.320299612958</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>37.86294566882081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.786554340597874</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S12" t="n">
         <v>127.6305556124798</v>
@@ -23393,16 +23393,16 @@
         <v>173.9226398638123</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9414346223241</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>157.347062929305</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.3217383067068</v>
+        <v>180.0754825441352</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I13" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J13" t="n">
-        <v>11.08509183685204</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T13" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,19 +23497,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>96.83141905932268</v>
+        <v>350.3314144856172</v>
       </c>
       <c r="D14" t="n">
-        <v>89.17439007272293</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>155.168716091341</v>
+        <v>120.3131666625459</v>
       </c>
       <c r="G14" t="n">
-        <v>116.0200225972241</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H14" t="n">
         <v>314.7099853831353</v>
@@ -23548,19 +23548,19 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T14" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>46.27341378074073</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>93.14575159349766</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23576,25 +23576,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>69.87332777859193</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>118.5388453083828</v>
       </c>
       <c r="H15" t="n">
         <v>84.320299612958</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>37.86294566882081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>173.9226398638123</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9414346223241</v>
+        <v>110.9462931111787</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>151.9373743956276</v>
       </c>
       <c r="H16" t="n">
         <v>151.5357458635549</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>43.30796004271818</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T16" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>21.16993180401602</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>340.8646710999423</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23904,16 +23904,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>100.7201759507684</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J19" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.1175231242441</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23977,16 +23977,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>408.4323500200001</v>
+        <v>169.0107101324019</v>
       </c>
       <c r="H20" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>113.8693593270194</v>
@@ -24022,10 +24022,10 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T20" t="n">
-        <v>104.5410873710159</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24177,7 +24177,7 @@
         <v>110.585143828612</v>
       </c>
       <c r="S22" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>232.2142445012334</v>
@@ -24186,16 +24186,16 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>145.7445262143986</v>
+        <v>32.43124353937932</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25.55347212717697</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>314.7099853831353</v>
@@ -24265,13 +24265,13 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>115.2214442405245</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>67.53329357051916</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24381,7 +24381,7 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>75.34263329112542</v>
       </c>
       <c r="I25" t="n">
         <v>123.6862121416195</v>
@@ -24414,7 +24414,7 @@
         <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24445,19 +24445,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>54.98535595566459</v>
+        <v>54.86896548580421</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24615,13 +24615,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>123.6862121416195</v>
+        <v>77.3997447601233</v>
       </c>
       <c r="J28" t="n">
         <v>11.085091836852</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>223.3294461716597</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>171.3658311807885</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>64.6634389619428</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>113.8693593270194</v>
@@ -24733,7 +24733,7 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1473000347972</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24843,25 +24843,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>50.60475565530315</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>144.6878279990936</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.096231574882211</v>
+        <v>122.6728880873951</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>408.4323500200001</v>
@@ -24937,7 +24937,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>56.99980735189081</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I34" t="n">
-        <v>44.8083753235564</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J34" t="n">
         <v>11.085091836852</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>133.4831133203062</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>382.1492143933395</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1473000347972</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.00706049253181</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>119.4392733493626</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>129.5191170546285</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>220.8233758939253</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>44.999287583967</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25563,7 +25563,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
         <v>151.5357458635549</v>
@@ -25599,25 +25599,25 @@
         <v>110.585143828612</v>
       </c>
       <c r="S40" t="n">
-        <v>22.89736932109798</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>111.2057571037531</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
-        <v>172.1426506069429</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>113.8693593270194</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>44.99727261108533</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>37.86294566882081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>144.6878279990935</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>95.93024894580611</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>224.9714343459598</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>291.0426435629996</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
-        <v>24.77523551197889</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>98.54227070384832</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
-        <v>208.5281233984375</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>252.9624214950086</v>
+        <v>1.079699593926364</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>125.2104714787828</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26034,19 +26034,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>165.2662953392557</v>
+        <v>90.10980962030322</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3191907480955</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>92.5120154934196</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>421276.5289363876</v>
+        <v>421276.5289363874</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>421276.5289363873</v>
+        <v>421276.5289363874</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>475170.5012294959</v>
+        <v>475170.5012294957</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>680319.0747080458</v>
+        <v>680319.0747080455</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>680319.0747080457</v>
+        <v>680319.0747080455</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680319.0747080458</v>
+        <v>680319.0747080459</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>680319.0747080457</v>
+        <v>680319.0747080459</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680319.0747080455</v>
+        <v>680319.0747080457</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>680319.0747080453</v>
+        <v>680319.0747080459</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665124.8668782285</v>
+        <v>680319.0747080459</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679289.7922614436</v>
+        <v>680319.0747080455</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>112234.5869414491</v>
       </c>
       <c r="D2" t="n">
-        <v>112234.586941449</v>
+        <v>112234.5869414491</v>
       </c>
       <c r="E2" t="n">
         <v>130217.7316704066</v>
@@ -26352,10 +26352,10 @@
         <v>184813.1670829999</v>
       </c>
       <c r="O2" t="n">
-        <v>180769.5884309405</v>
+        <v>184813.167083</v>
       </c>
       <c r="P2" t="n">
-        <v>198576.6562590835</v>
+        <v>184813.1670829999</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>138310.2725790578</v>
+        <v>138310.2725790581</v>
       </c>
       <c r="F3" t="n">
-        <v>2.246579811071569e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79013.35787544998</v>
+        <v>79013.35787544996</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>15563.12679473762</v>
+        <v>15563.12679473767</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>64236.77052221393</v>
+        <v>69374.98800038276</v>
       </c>
       <c r="P3" t="n">
-        <v>382610.8293856287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42684.20901701354</v>
+        <v>42684.20901701353</v>
       </c>
       <c r="C4" t="n">
         <v>42684.20901701353</v>
@@ -26426,19 +26426,19 @@
         <v>42684.20901701353</v>
       </c>
       <c r="E4" t="n">
-        <v>35939.22263464705</v>
+        <v>35939.22263464704</v>
       </c>
       <c r="F4" t="n">
-        <v>35939.22263464703</v>
+        <v>35939.22263464704</v>
       </c>
       <c r="G4" t="n">
-        <v>57037.09138530486</v>
+        <v>57037.09138530487</v>
       </c>
       <c r="H4" t="n">
         <v>57037.09138530487</v>
       </c>
       <c r="I4" t="n">
-        <v>57037.09138530487</v>
+        <v>57037.09138530486</v>
       </c>
       <c r="J4" t="n">
         <v>57037.09138530487</v>
@@ -26447,19 +26447,19 @@
         <v>57037.09138530486</v>
       </c>
       <c r="L4" t="n">
-        <v>57037.09138530488</v>
+        <v>57037.09138530487</v>
       </c>
       <c r="M4" t="n">
-        <v>57037.09138530488</v>
+        <v>57037.09138530487</v>
       </c>
       <c r="N4" t="n">
-        <v>57037.09138530486</v>
+        <v>57037.09138530487</v>
       </c>
       <c r="O4" t="n">
-        <v>55474.49020739699</v>
+        <v>57037.09138530487</v>
       </c>
       <c r="P4" t="n">
-        <v>9577.158877336187</v>
+        <v>57037.09138530487</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>47609.22728839959</v>
       </c>
       <c r="E5" t="n">
-        <v>21025.69256450309</v>
+        <v>21025.6925645031</v>
       </c>
       <c r="F5" t="n">
         <v>21025.6925645031</v>
@@ -26496,7 +26496,7 @@
         <v>38553.14630632538</v>
       </c>
       <c r="K5" t="n">
-        <v>38553.14630632537</v>
+        <v>38553.14630632538</v>
       </c>
       <c r="L5" t="n">
         <v>38553.14630632538</v>
@@ -26505,13 +26505,13 @@
         <v>38553.14630632538</v>
       </c>
       <c r="N5" t="n">
-        <v>38553.14630632537</v>
+        <v>38553.14630632538</v>
       </c>
       <c r="O5" t="n">
-        <v>37254.98580554762</v>
+        <v>38553.14630632538</v>
       </c>
       <c r="P5" t="n">
-        <v>49786.8620760362</v>
+        <v>38553.14630632538</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55124.06123518668</v>
+        <v>-56225.91684773615</v>
       </c>
       <c r="C6" t="n">
-        <v>21941.15063603599</v>
+        <v>20839.29502348645</v>
       </c>
       <c r="D6" t="n">
-        <v>21941.15063603592</v>
+        <v>20839.29502348648</v>
       </c>
       <c r="E6" t="n">
-        <v>-65057.45610780142</v>
+        <v>-66046.91706579519</v>
       </c>
       <c r="F6" t="n">
-        <v>73252.81647125624</v>
+        <v>72263.35551326293</v>
       </c>
       <c r="G6" t="n">
-        <v>10209.57151591976</v>
+        <v>9561.332029254925</v>
       </c>
       <c r="H6" t="n">
-        <v>89222.9293913697</v>
+        <v>88574.68990470482</v>
       </c>
       <c r="I6" t="n">
-        <v>89222.9293913697</v>
+        <v>88574.68990470482</v>
       </c>
       <c r="J6" t="n">
-        <v>29055.02001232319</v>
+        <v>28406.78052565845</v>
       </c>
       <c r="K6" t="n">
-        <v>89222.92939136963</v>
+        <v>88574.68990470488</v>
       </c>
       <c r="L6" t="n">
-        <v>89222.92939136967</v>
+        <v>88574.68990470482</v>
       </c>
       <c r="M6" t="n">
-        <v>73659.80259663206</v>
+        <v>73011.56310996717</v>
       </c>
       <c r="N6" t="n">
-        <v>89222.92939136966</v>
+        <v>88574.68990470488</v>
       </c>
       <c r="O6" t="n">
-        <v>23803.341895782</v>
+        <v>19199.70190432216</v>
       </c>
       <c r="P6" t="n">
-        <v>-243398.1940799176</v>
+        <v>88574.68990470485</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>148.9460117980878</v>
+        <v>148.9460117980881</v>
       </c>
       <c r="F3" t="n">
         <v>148.9460117980881</v>
@@ -26779,7 +26779,7 @@
         <v>148.9460117980881</v>
       </c>
       <c r="P3" t="n">
-        <v>723.8027214535276</v>
+        <v>148.9460117980881</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="E4" t="n">
-        <v>292.4123274227759</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="F4" t="n">
-        <v>292.412327422776</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="G4" t="n">
         <v>580.6928165974845</v>
@@ -26816,7 +26816,7 @@
         <v>580.6928165974845</v>
       </c>
       <c r="K4" t="n">
-        <v>580.6928165974844</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="L4" t="n">
         <v>580.6928165974845</v>
@@ -26825,13 +26825,13 @@
         <v>580.6928165974845</v>
       </c>
       <c r="N4" t="n">
-        <v>580.6928165974844</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="O4" t="n">
-        <v>559.3414925715346</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="P4" t="n">
-        <v>559.3414925715346</v>
+        <v>580.6928165974845</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>148.9460117980878</v>
+        <v>148.9460117980881</v>
       </c>
       <c r="F3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>574.8567096554395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>62.45135228462473</v>
+        <v>62.4513522846249</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>288.2804891747085</v>
+        <v>288.2804891747084</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>62.45135228462473</v>
+        <v>62.4513522846249</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>266.9291651487587</v>
+        <v>288.2804891747084</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>62.45135228462473</v>
+        <v>62.4513522846249</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>288.2804891747085</v>
+        <v>288.2804891747084</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5987779368767345</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H11" t="n">
-        <v>6.132234546038859</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I11" t="n">
-        <v>23.08438641144033</v>
+        <v>23.08438641144037</v>
       </c>
       <c r="J11" t="n">
-        <v>50.82052891999179</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K11" t="n">
-        <v>76.16679898798398</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L11" t="n">
-        <v>94.49164927367536</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M11" t="n">
-        <v>105.140166408607</v>
+        <v>105.1401664086072</v>
       </c>
       <c r="N11" t="n">
-        <v>106.841444221758</v>
+        <v>106.8414442217582</v>
       </c>
       <c r="O11" t="n">
-        <v>100.88734611194</v>
+        <v>100.8873461119402</v>
       </c>
       <c r="P11" t="n">
-        <v>86.10501579529559</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.6612809308975</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733321</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>13.6446522365786</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T11" t="n">
-        <v>2.621150418677907</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04790223495013875</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3203744404713587</v>
+        <v>0.3203744404713593</v>
       </c>
       <c r="H12" t="n">
-        <v>3.09414262244707</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I12" t="n">
-        <v>11.03043577938669</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J12" t="n">
-        <v>30.26835886926991</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K12" t="n">
-        <v>51.73344638085094</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L12" t="n">
-        <v>69.56200296287112</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M12" t="n">
-        <v>81.17557642995786</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N12" t="n">
-        <v>83.32405239259255</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O12" t="n">
-        <v>76.22522926425349</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P12" t="n">
-        <v>61.17746661948253</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.895516295958</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R12" t="n">
-        <v>19.89131833031823</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S12" t="n">
-        <v>5.950814716650014</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T12" t="n">
-        <v>1.291333819268327</v>
+        <v>1.291333819268329</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02107726582048414</v>
+        <v>0.02107726582048417</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2685911688162239</v>
+        <v>0.2685911688162244</v>
       </c>
       <c r="H13" t="n">
-        <v>2.388019664566065</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I13" t="n">
-        <v>8.077268967673355</v>
+        <v>8.077268967673369</v>
       </c>
       <c r="J13" t="n">
-        <v>18.98939563530703</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K13" t="n">
-        <v>31.20541034064856</v>
+        <v>31.20541034064861</v>
       </c>
       <c r="L13" t="n">
-        <v>39.93218158927751</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M13" t="n">
-        <v>42.10288658089226</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N13" t="n">
-        <v>41.10177404257728</v>
+        <v>41.10177404257735</v>
       </c>
       <c r="O13" t="n">
-        <v>37.9641408432241</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P13" t="n">
-        <v>32.4848809993731</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.49084778151126</v>
+        <v>22.4908477815113</v>
       </c>
       <c r="R13" t="n">
-        <v>12.07683564513676</v>
+        <v>12.07683564513678</v>
       </c>
       <c r="S13" t="n">
-        <v>4.680811551097283</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T13" t="n">
-        <v>1.147616812214775</v>
+        <v>1.147616812214777</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01465042738997587</v>
+        <v>0.01465042738997589</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>3.094142622447076</v>
       </c>
       <c r="I21" t="n">
-        <v>11.03043577938672</v>
+        <v>11.03043577938671</v>
       </c>
       <c r="J21" t="n">
         <v>30.26835886926997</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.909759684235285</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H44" t="n">
-        <v>29.79957636617462</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I44" t="n">
-        <v>112.1785102264809</v>
+        <v>23.08438641144037</v>
       </c>
       <c r="J44" t="n">
-        <v>246.9622159998647</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K44" t="n">
-        <v>370.1323434335444</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L44" t="n">
-        <v>459.1819013699601</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M44" t="n">
-        <v>510.9283401544793</v>
+        <v>105.1401664086072</v>
       </c>
       <c r="N44" t="n">
-        <v>519.1956948573129</v>
+        <v>106.8414442217582</v>
       </c>
       <c r="O44" t="n">
-        <v>490.2617719971982</v>
+        <v>100.8873461119402</v>
       </c>
       <c r="P44" t="n">
-        <v>418.4270797926396</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q44" t="n">
-        <v>314.2213111009633</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R44" t="n">
-        <v>182.7801917648449</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>66.30614880451162</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T44" t="n">
-        <v>12.73747301773997</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2327807747388227</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.556858683881173</v>
+        <v>0.3203744404713593</v>
       </c>
       <c r="H45" t="n">
-        <v>15.03597728906291</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I45" t="n">
-        <v>53.60237135292635</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J45" t="n">
-        <v>147.0890039889664</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K45" t="n">
-        <v>251.398535809005</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L45" t="n">
-        <v>338.0363559014801</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M45" t="n">
-        <v>394.4724831921725</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N45" t="n">
-        <v>404.9129960327617</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O45" t="n">
-        <v>370.4162851951841</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P45" t="n">
-        <v>297.2917253456952</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q45" t="n">
-        <v>198.7316453319195</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R45" t="n">
-        <v>96.66180495185039</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S45" t="n">
-        <v>28.91796722033667</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T45" t="n">
-        <v>6.275233028450865</v>
+        <v>1.291333819268329</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1024249134132351</v>
+        <v>0.02107726582048417</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.305218022293246</v>
+        <v>0.2685911688162244</v>
       </c>
       <c r="H46" t="n">
-        <v>11.60457478002542</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I46" t="n">
-        <v>39.25146561587328</v>
+        <v>8.077268967673369</v>
       </c>
       <c r="J46" t="n">
-        <v>92.27891417613252</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K46" t="n">
-        <v>151.6426029537062</v>
+        <v>31.20541034064861</v>
       </c>
       <c r="L46" t="n">
-        <v>194.0503230598523</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M46" t="n">
-        <v>204.5988578036586</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N46" t="n">
-        <v>199.7339542660203</v>
+        <v>41.10177404257735</v>
       </c>
       <c r="O46" t="n">
-        <v>184.4866346419582</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P46" t="n">
-        <v>157.8601869871758</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q46" t="n">
-        <v>109.2942109394827</v>
+        <v>22.4908477815113</v>
       </c>
       <c r="R46" t="n">
-        <v>58.68734852965814</v>
+        <v>12.07683564513678</v>
       </c>
       <c r="S46" t="n">
-        <v>22.74639044305593</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T46" t="n">
-        <v>5.576840640707506</v>
+        <v>1.147616812214777</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07119371030690443</v>
+        <v>0.01465042738997589</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34944,19 +34944,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O5" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N6" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O6" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>33.95693559625769</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>229.9609751381512</v>
@@ -35187,13 +35187,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P9" t="n">
-        <v>106.4120648096125</v>
       </c>
       <c r="Q9" t="n">
         <v>229.9609751381512</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K11" t="n">
-        <v>292.4123274227759</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="L11" t="n">
-        <v>292.4123274227759</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>280.5976879309467</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>292.4123274227759</v>
+        <v>124.7046367656851</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>144.5259166669743</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="L12" t="n">
-        <v>292.4123274227759</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="M12" t="n">
-        <v>292.4123274227759</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="N12" t="n">
-        <v>136.0717712639723</v>
+        <v>136.0717712639724</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>292.4123274227759</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>113.8670680274585</v>
+        <v>113.8670680274586</v>
       </c>
       <c r="L13" t="n">
-        <v>205.7176764112975</v>
+        <v>205.7176764112976</v>
       </c>
       <c r="M13" t="n">
-        <v>230.2761980336842</v>
+        <v>230.2761980336843</v>
       </c>
       <c r="N13" t="n">
         <v>226.1418084175361</v>
@@ -35588,7 +35588,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.94761179166374</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>292.412327422776</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>292.412327422776</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>29.22371998899003</v>
       </c>
       <c r="O14" t="n">
-        <v>280.5976879309468</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="P14" t="n">
-        <v>292.412327422776</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K15" t="n">
-        <v>292.412327422776</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="M15" t="n">
-        <v>280.5976879309467</v>
+        <v>292.4123274227761</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>136.0717712639724</v>
       </c>
       <c r="O15" t="n">
-        <v>292.412327422776</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>292.412327422776</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>580.6928165974845</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>580.6928165974845</v>
+        <v>484.060801066746</v>
       </c>
       <c r="N17" t="n">
         <v>580.6928165974845</v>
@@ -35901,10 +35901,10 @@
         <v>545.3717914577264</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.8586891156174</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K18" t="n">
         <v>374.7022807871404</v>
       </c>
       <c r="L18" t="n">
-        <v>558.0125947793492</v>
+        <v>38.00228311922902</v>
       </c>
       <c r="M18" t="n">
-        <v>315.0052173233531</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="N18" t="n">
         <v>580.6928165974845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="P18" t="n">
-        <v>470.8960208784699</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>196.9314106460809</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>438.7752394197637</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>296.6595295889389</v>
+      </c>
+      <c r="N20" t="n">
         <v>580.6928165974845</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>537.5376722447417</v>
       </c>
       <c r="O20" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>144.5259166669744</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L21" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M21" t="n">
-        <v>545.1815814435191</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>37.37728531538441</v>
+      </c>
+      <c r="O21" t="n">
         <v>580.6928165974845</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>45.28556164698233</v>
       </c>
       <c r="K23" t="n">
         <v>438.7752394197637</v>
       </c>
       <c r="L23" t="n">
-        <v>580.6928165974845</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>580.6928165974845</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>580.6928165974845</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>545.3717914577264</v>
       </c>
       <c r="P23" t="n">
-        <v>118.4552411535799</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L24" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M24" t="n">
-        <v>412.0795661025248</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>470.8960208784699</v>
       </c>
       <c r="Q24" t="n">
-        <v>277.6279320079687</v>
+        <v>170.4793006563787</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,19 +36603,19 @@
         <v>580.6928165974845</v>
       </c>
       <c r="M26" t="n">
-        <v>580.6928165974845</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>580.6928165974845</v>
+        <v>484.0608010667461</v>
       </c>
       <c r="O26" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.8586891156174</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0125947793492</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>389.3993442843895</v>
       </c>
       <c r="N27" t="n">
-        <v>315.0052173233531</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="O27" t="n">
         <v>580.6928165974845</v>
@@ -36694,7 +36694,7 @@
         <v>470.8960208784699</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>11.85868911561723</v>
       </c>
       <c r="L29" t="n">
-        <v>580.6928165974844</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="M29" t="n">
-        <v>580.6928165974844</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="N29" t="n">
-        <v>580.6928165974844</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="O29" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P29" t="n">
-        <v>11.85868911561694</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>558.0125947793492</v>
       </c>
       <c r="M30" t="n">
-        <v>580.6928165974844</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="N30" t="n">
-        <v>580.6928165974844</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="O30" t="n">
         <v>579.9107023914787</v>
@@ -37071,16 +37071,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>438.7752394197637</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>580.6928165974845</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>154.7419524112182</v>
       </c>
       <c r="N32" t="n">
-        <v>45.28556164698238</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="O32" t="n">
         <v>545.3717914577264</v>
@@ -37089,7 +37089,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q32" t="n">
-        <v>251.3739679419568</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M33" t="n">
         <v>580.6928165974845</v>
       </c>
       <c r="N33" t="n">
-        <v>389.3993442843896</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>580.6928165974845</v>
+        <v>37.37728531538429</v>
       </c>
       <c r="P33" t="n">
         <v>470.8960208784699</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K35" t="n">
-        <v>438.7752394197637</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="M35" t="n">
-        <v>45.28556164698232</v>
+        <v>251.8083652809072</v>
       </c>
       <c r="N35" t="n">
         <v>580.6928165974845</v>
       </c>
       <c r="O35" t="n">
-        <v>545.3717914577264</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>437.8095533018835</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>450.8639634277593</v>
       </c>
       <c r="M36" t="n">
-        <v>580.6928165974845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>580.6928165974845</v>
       </c>
       <c r="O36" t="n">
-        <v>580.6928165974845</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>279.6025485653752</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q36" t="n">
         <v>277.6279320079687</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>484.0608010667457</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="N38" t="n">
-        <v>580.6928165974844</v>
+        <v>287.1293904206652</v>
       </c>
       <c r="O38" t="n">
         <v>545.3717914577264</v>
@@ -37624,22 +37624,22 @@
         <v>144.5259166669744</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L39" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M39" t="n">
-        <v>580.6928165974844</v>
+        <v>170.4793006563787</v>
       </c>
       <c r="N39" t="n">
-        <v>435.3847857245042</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="O39" t="n">
-        <v>580.6928165974844</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>438.7752394197637</v>
       </c>
       <c r="L41" t="n">
-        <v>344.5043512532104</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>545.3717914577264</v>
+        <v>393.725942458628</v>
       </c>
       <c r="P41" t="n">
         <v>437.8095533018835</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K42" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>558.0125947793492</v>
+        <v>412.7045639063693</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="N42" t="n">
-        <v>445.0820138746291</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="O42" t="n">
-        <v>559.3414925715346</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>277.6279320079687</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>129.2823780575186</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>227.073940254307</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>305.9337316394684</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>361.2032885567521</v>
+        <v>484.060801066746</v>
       </c>
       <c r="N44" t="n">
-        <v>370.0772035195288</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="O44" t="n">
-        <v>340.6979345731018</v>
+        <v>545.3717914577264</v>
       </c>
       <c r="P44" t="n">
-        <v>268.1256325517144</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q44" t="n">
-        <v>169.7226126825711</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R44" t="n">
-        <v>42.64959218565897</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4.708989904718827</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.64454665563308</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K45" t="n">
-        <v>350.4392488423728</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
-        <v>247.9760090445619</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M45" t="n">
-        <v>302.0853611428606</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="N45" t="n">
-        <v>319.540883178595</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>277.7287263062952</v>
+        <v>170.4793006563787</v>
       </c>
       <c r="P45" t="n">
-        <v>210.2083605263805</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q45" t="n">
-        <v>435.4640610439301</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.970127375273805</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>62.20442670397345</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>234.3042606405162</v>
+        <v>113.8670680274586</v>
       </c>
       <c r="L46" t="n">
-        <v>359.8358178818723</v>
+        <v>205.7176764112976</v>
       </c>
       <c r="M46" t="n">
-        <v>392.7721692564505</v>
+        <v>230.2761980336843</v>
       </c>
       <c r="N46" t="n">
-        <v>384.773988640979</v>
+        <v>226.1418084175361</v>
       </c>
       <c r="O46" t="n">
-        <v>348.8348841790371</v>
+        <v>202.312390380303</v>
       </c>
       <c r="P46" t="n">
-        <v>278.947223125134</v>
+        <v>153.5719171373313</v>
       </c>
       <c r="Q46" t="n">
-        <v>112.7509749496352</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
